--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-05.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-05.xlsx
@@ -667,13 +667,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="G2" t="n">
         <v>6.8</v>
       </c>
       <c r="H2" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="I2" t="n">
         <v>1.87</v>
@@ -682,7 +682,7 @@
         <v>3.65</v>
       </c>
       <c r="K2" t="n">
-        <v>5</v>
+        <v>500</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -697,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="Q2" t="n">
         <v>1.69</v>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.3</v>
+        <v>2.52</v>
       </c>
       <c r="G3" t="n">
-        <v>3.15</v>
+        <v>2.92</v>
       </c>
       <c r="H3" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="I3" t="n">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="J3" t="n">
-        <v>2.66</v>
+        <v>2.8</v>
       </c>
       <c r="K3" t="n">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.01</v>
+        <v>2.92</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -937,23 +937,23 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="G4" t="n">
-        <v>1.86</v>
+        <v>1.77</v>
       </c>
       <c r="H4" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K4" t="n">
         <v>4.7</v>
       </c>
-      <c r="I4" t="n">
-        <v>18</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K4" t="n">
-        <v>7.8</v>
-      </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
@@ -967,10 +967,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.86</v>
+        <v>1.98</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1072,28 +1072,28 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="H5" t="n">
-        <v>1.09</v>
+        <v>4.5</v>
       </c>
       <c r="I5" t="n">
         <v>6.4</v>
       </c>
       <c r="J5" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="K5" t="n">
-        <v>980</v>
+        <v>3.9</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -1102,22 +1102,22 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1.57</v>
+        <v>1.68</v>
       </c>
       <c r="Q5" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
         <v>1.98</v>
       </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.05</v>
-      </c>
       <c r="U5" t="n">
-        <v>1.05</v>
+        <v>1.8</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC5" t="n">
         <v>1000</v>
@@ -1150,16 +1150,16 @@
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH5" t="n">
         <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ5" t="n">
         <v>1000</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>2.74</v>
+        <v>2.82</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="Q7" t="n">
         <v>1.3</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.04</v>
+        <v>2.68</v>
       </c>
       <c r="G8" t="n">
-        <v>1000</v>
+        <v>3.1</v>
       </c>
       <c r="H8" t="n">
-        <v>1.04</v>
+        <v>3.3</v>
       </c>
       <c r="I8" t="n">
-        <v>1000</v>
+        <v>3.95</v>
       </c>
       <c r="J8" t="n">
-        <v>1.01</v>
+        <v>2.7</v>
       </c>
       <c r="K8" t="n">
-        <v>950</v>
+        <v>2.96</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1642,10 +1642,10 @@
         <v>1.48</v>
       </c>
       <c r="P9" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="G10" t="n">
         <v>1.95</v>
@@ -1756,13 +1756,13 @@
         <v>4.3</v>
       </c>
       <c r="I10" t="n">
-        <v>6.2</v>
+        <v>7.2</v>
       </c>
       <c r="J10" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="K10" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.08</v>
+        <v>2.22</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>2.2</v>
       </c>
       <c r="G12" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="H12" t="n">
         <v>3.65</v>
@@ -2029,7 +2029,7 @@
         <v>3.9</v>
       </c>
       <c r="J12" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K12" t="n">
         <v>3.6</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="Q12" t="n">
         <v>2.06</v>
@@ -2293,13 +2293,13 @@
         <v>1.77</v>
       </c>
       <c r="H14" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="I14" t="n">
         <v>6.2</v>
       </c>
       <c r="J14" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K14" t="n">
         <v>4.1</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-05.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-05.xlsx
@@ -667,13 +667,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="G2" t="n">
         <v>6.8</v>
       </c>
       <c r="H2" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="I2" t="n">
         <v>1.87</v>
@@ -682,7 +682,7 @@
         <v>3.65</v>
       </c>
       <c r="K2" t="n">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -697,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q2" t="n">
         <v>1.69</v>
@@ -835,7 +835,7 @@
         <v>1.44</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -937,10 +937,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="G4" t="n">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="H4" t="n">
         <v>5.6</v>
@@ -1072,28 +1072,28 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="G5" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="H5" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="I5" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="J5" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="K5" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1.68</v>
+        <v>1.81</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>1.98</v>
+        <v>1.87</v>
       </c>
       <c r="U5" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1135,13 +1135,13 @@
         <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AB5" t="n">
-        <v>970</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AD5" t="n">
         <v>1000</v>
@@ -1150,16 +1150,16 @@
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
         <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AJ5" t="n">
         <v>1000</v>
@@ -1171,7 +1171,7 @@
         <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN5" t="n">
         <v>1000</v>
@@ -1354,7 +1354,7 @@
         <v>1000</v>
       </c>
       <c r="J7" t="n">
-        <v>1.01</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K7" t="n">
         <v>1000</v>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.68</v>
+        <v>2.62</v>
       </c>
       <c r="G8" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="H8" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I8" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="J8" t="n">
         <v>2.7</v>
       </c>
       <c r="K8" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="H9" t="n">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="I9" t="n">
         <v>7</v>
       </c>
       <c r="J9" t="n">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="K9" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1636,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="O9" t="n">
         <v>1.48</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="G10" t="n">
         <v>1.95</v>
@@ -1756,13 +1756,13 @@
         <v>4.3</v>
       </c>
       <c r="I10" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="J10" t="n">
         <v>3.35</v>
       </c>
       <c r="K10" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="G14" t="n">
         <v>1.77</v>
       </c>
       <c r="H14" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="I14" t="n">
         <v>6.2</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-05.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-05.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="G2" t="n">
         <v>6.8</v>
@@ -676,7 +676,7 @@
         <v>1.65</v>
       </c>
       <c r="I2" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="J2" t="n">
         <v>3.65</v>
@@ -700,7 +700,7 @@
         <v>2.12</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -811,7 +811,7 @@
         <v>3.35</v>
       </c>
       <c r="I3" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="J3" t="n">
         <v>2.8</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="G4" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H4" t="n">
         <v>5.6</v>
       </c>
       <c r="I4" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="J4" t="n">
         <v>3.9</v>
       </c>
       <c r="K4" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -967,10 +967,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1072,19 +1072,19 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="G5" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="H5" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="I5" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="J5" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="K5" t="n">
         <v>4.1</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="Q5" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH5" t="n">
         <v>1000</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.04</v>
+        <v>1.21</v>
       </c>
       <c r="G6" t="n">
-        <v>1000</v>
+        <v>1.29</v>
       </c>
       <c r="H6" t="n">
-        <v>1.04</v>
+        <v>14.5</v>
       </c>
       <c r="I6" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="J6" t="n">
         <v>6.6</v>
       </c>
       <c r="K6" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>2.82</v>
+        <v>3</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.04</v>
+        <v>5.6</v>
       </c>
       <c r="G7" t="n">
         <v>1000</v>
       </c>
       <c r="H7" t="n">
-        <v>1.04</v>
+        <v>1.17</v>
       </c>
       <c r="I7" t="n">
-        <v>1000</v>
+        <v>1.21</v>
       </c>
       <c r="J7" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="K7" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="G8" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="H8" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="I8" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="J8" t="n">
         <v>2.7</v>
@@ -1507,10 +1507,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.24</v>
+        <v>1.38</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.01</v>
+        <v>2.84</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="G9" t="n">
-        <v>1.99</v>
+        <v>1.93</v>
       </c>
       <c r="H9" t="n">
         <v>5.3</v>
       </c>
       <c r="I9" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="J9" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="K9" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1642,10 +1642,10 @@
         <v>1.48</v>
       </c>
       <c r="P9" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="G10" t="n">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="H10" t="n">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="I10" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="J10" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="K10" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -2023,10 +2023,10 @@
         <v>2.3</v>
       </c>
       <c r="H12" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I12" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="J12" t="n">
         <v>3.3</v>
@@ -2287,19 +2287,19 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="G14" t="n">
-        <v>1.77</v>
+        <v>1.7</v>
       </c>
       <c r="H14" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="I14" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="J14" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="K14" t="n">
         <v>4.1</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-05.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-05.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>1.04</v>
       </c>
       <c r="G2" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="H2" t="n">
-        <v>1.65</v>
+        <v>1.04</v>
       </c>
       <c r="I2" t="n">
-        <v>1.86</v>
+        <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>3.65</v>
+        <v>1.01</v>
       </c>
       <c r="K2" t="n">
-        <v>5</v>
+        <v>1000</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -697,10 +697,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2.12</v>
+        <v>1.24</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.68</v>
+        <v>1.01</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.52</v>
+        <v>1.37</v>
       </c>
       <c r="G3" t="n">
-        <v>2.92</v>
+        <v>980</v>
       </c>
       <c r="H3" t="n">
-        <v>3.35</v>
+        <v>1.04</v>
       </c>
       <c r="I3" t="n">
-        <v>3.75</v>
+        <v>980</v>
       </c>
       <c r="J3" t="n">
-        <v>2.8</v>
+        <v>1.37</v>
       </c>
       <c r="K3" t="n">
-        <v>3.1</v>
+        <v>980</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.44</v>
+        <v>1.24</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.9</v>
+        <v>1.01</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.6</v>
+        <v>1.04</v>
       </c>
       <c r="G4" t="n">
-        <v>1.75</v>
+        <v>980</v>
       </c>
       <c r="H4" t="n">
-        <v>5.6</v>
+        <v>1.04</v>
       </c>
       <c r="I4" t="n">
-        <v>7.4</v>
+        <v>980</v>
       </c>
       <c r="J4" t="n">
-        <v>3.9</v>
+        <v>1.01</v>
       </c>
       <c r="K4" t="n">
-        <v>4.6</v>
+        <v>980</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -967,10 +967,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.99</v>
+        <v>1.24</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.81</v>
+        <v>1.01</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1072,28 +1072,28 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.78</v>
+        <v>1.04</v>
       </c>
       <c r="G5" t="n">
-        <v>1.99</v>
+        <v>1000</v>
       </c>
       <c r="H5" t="n">
-        <v>4.6</v>
+        <v>1.04</v>
       </c>
       <c r="I5" t="n">
-        <v>6.2</v>
+        <v>1000</v>
       </c>
       <c r="J5" t="n">
-        <v>3.3</v>
+        <v>1.02</v>
       </c>
       <c r="K5" t="n">
-        <v>4.1</v>
+        <v>980</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1.79</v>
+        <v>1.24</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.92</v>
+        <v>1.05</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>1.87</v>
+        <v>1.05</v>
       </c>
       <c r="U5" t="n">
-        <v>1.9</v>
+        <v>1.05</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1135,13 +1135,13 @@
         <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
         <v>1000</v>
@@ -1153,13 +1153,13 @@
         <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
         <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
         <v>1000</v>
@@ -1171,7 +1171,7 @@
         <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
         <v>1000</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.21</v>
+        <v>1.04</v>
       </c>
       <c r="G6" t="n">
-        <v>1.29</v>
+        <v>1000</v>
       </c>
       <c r="H6" t="n">
-        <v>14.5</v>
+        <v>1.04</v>
       </c>
       <c r="I6" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="J6" t="n">
-        <v>6.6</v>
+        <v>1.01</v>
       </c>
       <c r="K6" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>3</v>
+        <v>1.24</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>5.6</v>
+        <v>1.04</v>
       </c>
       <c r="G7" t="n">
         <v>1000</v>
       </c>
       <c r="H7" t="n">
-        <v>1.17</v>
+        <v>1.04</v>
       </c>
       <c r="I7" t="n">
-        <v>1.21</v>
+        <v>1000</v>
       </c>
       <c r="J7" t="n">
-        <v>8</v>
+        <v>1.01</v>
       </c>
       <c r="K7" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>3.1</v>
+        <v>1.24</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.66</v>
+        <v>1.04</v>
       </c>
       <c r="G8" t="n">
-        <v>3.15</v>
+        <v>1000</v>
       </c>
       <c r="H8" t="n">
-        <v>3.25</v>
+        <v>1.04</v>
       </c>
       <c r="I8" t="n">
-        <v>3.95</v>
+        <v>1000</v>
       </c>
       <c r="J8" t="n">
-        <v>2.7</v>
+        <v>1.01</v>
       </c>
       <c r="K8" t="n">
-        <v>2.98</v>
+        <v>950</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1507,10 +1507,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.38</v>
+        <v>1.24</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.84</v>
+        <v>1.01</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.81</v>
+        <v>1.04</v>
       </c>
       <c r="G9" t="n">
-        <v>1.93</v>
+        <v>1000</v>
       </c>
       <c r="H9" t="n">
-        <v>5.3</v>
+        <v>1.04</v>
       </c>
       <c r="I9" t="n">
         <v>1000</v>
       </c>
       <c r="J9" t="n">
-        <v>2.88</v>
+        <v>1.01</v>
       </c>
       <c r="K9" t="n">
-        <v>3.9</v>
+        <v>980</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1636,16 +1636,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>2.76</v>
+        <v>1.2</v>
       </c>
       <c r="O9" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="P9" t="n">
-        <v>1.58</v>
+        <v>1.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.44</v>
+        <v>1.47</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.77</v>
+        <v>1.04</v>
       </c>
       <c r="G10" t="n">
-        <v>2.04</v>
+        <v>1000</v>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>1.04</v>
       </c>
       <c r="I10" t="n">
-        <v>6.6</v>
+        <v>1000</v>
       </c>
       <c r="J10" t="n">
-        <v>3.15</v>
+        <v>1.01</v>
       </c>
       <c r="K10" t="n">
-        <v>3.9</v>
+        <v>980</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1.68</v>
+        <v>1.25</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.16</v>
+        <v>1.01</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.2</v>
+        <v>1.38</v>
       </c>
       <c r="G12" t="n">
         <v>2.3</v>
       </c>
       <c r="H12" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="I12" t="n">
-        <v>3.85</v>
+        <v>1000</v>
       </c>
       <c r="J12" t="n">
         <v>3.3</v>
       </c>
       <c r="K12" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1.8</v>
+        <v>1.22</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.06</v>
+        <v>1.01</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2287,19 +2287,19 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="G14" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="H14" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="I14" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
       <c r="J14" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="K14" t="n">
         <v>4.1</v>
@@ -2317,10 +2317,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>1.84</v>
+        <v>1.24</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.04</v>
+        <v>1.01</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-05.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-05.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.04</v>
+        <v>3.9</v>
       </c>
       <c r="G2" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K2" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="X2" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF2" t="n">
         <v>1000</v>
       </c>
-      <c r="H2" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="AG2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI2" t="n">
         <v>1000</v>
       </c>
-      <c r="J2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="AJ2" t="n">
         <v>1000</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0</v>
-      </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.37</v>
+        <v>2.64</v>
       </c>
       <c r="G3" t="n">
-        <v>980</v>
+        <v>3.1</v>
       </c>
       <c r="H3" t="n">
-        <v>1.04</v>
+        <v>3.25</v>
       </c>
       <c r="I3" t="n">
-        <v>980</v>
+        <v>3.65</v>
       </c>
       <c r="J3" t="n">
-        <v>1.37</v>
+        <v>2.74</v>
       </c>
       <c r="K3" t="n">
-        <v>980</v>
+        <v>3.05</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.24</v>
+        <v>1.41</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.01</v>
+        <v>3.1</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.04</v>
+        <v>1.65</v>
       </c>
       <c r="G4" t="n">
-        <v>980</v>
+        <v>1.8</v>
       </c>
       <c r="H4" t="n">
-        <v>1.04</v>
+        <v>5.2</v>
       </c>
       <c r="I4" t="n">
-        <v>980</v>
+        <v>6.4</v>
       </c>
       <c r="J4" t="n">
-        <v>1.01</v>
+        <v>3.75</v>
       </c>
       <c r="K4" t="n">
-        <v>980</v>
+        <v>4.5</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -967,10 +967,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.24</v>
+        <v>1.97</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.01</v>
+        <v>1.84</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1072,28 +1072,28 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.04</v>
+        <v>1.7</v>
       </c>
       <c r="G5" t="n">
-        <v>1000</v>
+        <v>1.87</v>
       </c>
       <c r="H5" t="n">
-        <v>1.04</v>
+        <v>5.1</v>
       </c>
       <c r="I5" t="n">
-        <v>1000</v>
+        <v>6.2</v>
       </c>
       <c r="J5" t="n">
-        <v>1.02</v>
+        <v>3.55</v>
       </c>
       <c r="K5" t="n">
-        <v>980</v>
+        <v>4.2</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1.24</v>
+        <v>1.77</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.05</v>
+        <v>2.1</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>1.05</v>
+        <v>1.97</v>
       </c>
       <c r="U5" t="n">
-        <v>1.05</v>
+        <v>1.84</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1129,7 +1129,7 @@
         <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="Z5" t="n">
         <v>1000</v>
@@ -1141,7 +1141,7 @@
         <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD5" t="n">
         <v>1000</v>
@@ -1150,16 +1150,16 @@
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH5" t="n">
         <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ5" t="n">
         <v>1000</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.04</v>
+        <v>1.22</v>
       </c>
       <c r="G6" t="n">
-        <v>1000</v>
+        <v>1.28</v>
       </c>
       <c r="H6" t="n">
-        <v>1.04</v>
+        <v>13.5</v>
       </c>
       <c r="I6" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="J6" t="n">
-        <v>1.01</v>
+        <v>7</v>
       </c>
       <c r="K6" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.24</v>
+        <v>3</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.04</v>
+        <v>5.6</v>
       </c>
       <c r="G7" t="n">
         <v>1000</v>
       </c>
       <c r="H7" t="n">
-        <v>1.04</v>
+        <v>1.17</v>
       </c>
       <c r="I7" t="n">
-        <v>1000</v>
+        <v>1.21</v>
       </c>
       <c r="J7" t="n">
-        <v>1.01</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="K7" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.24</v>
+        <v>3.1</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.04</v>
+        <v>2.52</v>
       </c>
       <c r="G8" t="n">
-        <v>1000</v>
+        <v>2.72</v>
       </c>
       <c r="H8" t="n">
-        <v>1.04</v>
+        <v>3.55</v>
       </c>
       <c r="I8" t="n">
-        <v>1000</v>
+        <v>4.2</v>
       </c>
       <c r="J8" t="n">
-        <v>1.01</v>
+        <v>2.7</v>
       </c>
       <c r="K8" t="n">
-        <v>950</v>
+        <v>2.98</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1507,10 +1507,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.24</v>
+        <v>1.37</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.01</v>
+        <v>3.25</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.04</v>
+        <v>1.73</v>
       </c>
       <c r="G9" t="n">
-        <v>1000</v>
+        <v>1.85</v>
       </c>
       <c r="H9" t="n">
-        <v>1.04</v>
+        <v>5</v>
       </c>
       <c r="I9" t="n">
         <v>1000</v>
       </c>
       <c r="J9" t="n">
-        <v>1.01</v>
+        <v>3.35</v>
       </c>
       <c r="K9" t="n">
-        <v>980</v>
+        <v>4.1</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1636,16 +1636,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>1.2</v>
+        <v>2.78</v>
       </c>
       <c r="O9" t="n">
         <v>1.47</v>
       </c>
       <c r="P9" t="n">
-        <v>1.2</v>
+        <v>1.61</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.47</v>
+        <v>2.38</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.04</v>
+        <v>1.71</v>
       </c>
       <c r="G10" t="n">
-        <v>1000</v>
+        <v>1.92</v>
       </c>
       <c r="H10" t="n">
-        <v>1.04</v>
+        <v>5.3</v>
       </c>
       <c r="I10" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="J10" t="n">
-        <v>1.01</v>
+        <v>3.45</v>
       </c>
       <c r="K10" t="n">
-        <v>980</v>
+        <v>4.1</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1.25</v>
+        <v>1.73</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.01</v>
+        <v>2.1</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.04</v>
+        <v>2.78</v>
       </c>
       <c r="G11" t="n">
-        <v>1000</v>
+        <v>4.4</v>
       </c>
       <c r="H11" t="n">
-        <v>1.04</v>
+        <v>2.26</v>
       </c>
       <c r="I11" t="n">
-        <v>1000</v>
+        <v>2.82</v>
       </c>
       <c r="J11" t="n">
-        <v>1.01</v>
+        <v>2.74</v>
       </c>
       <c r="K11" t="n">
-        <v>950</v>
+        <v>3.5</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1912,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.24</v>
+        <v>1.54</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.38</v>
+        <v>2.2</v>
       </c>
       <c r="G12" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="H12" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="I12" t="n">
-        <v>1000</v>
+        <v>3.85</v>
       </c>
       <c r="J12" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K12" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1.22</v>
+        <v>1.83</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.04</v>
+        <v>2.16</v>
       </c>
       <c r="G13" t="n">
-        <v>1000</v>
+        <v>2.68</v>
       </c>
       <c r="H13" t="n">
-        <v>1.04</v>
+        <v>2.8</v>
       </c>
       <c r="I13" t="n">
-        <v>1000</v>
+        <v>4.6</v>
       </c>
       <c r="J13" t="n">
-        <v>1.01</v>
+        <v>2.84</v>
       </c>
       <c r="K13" t="n">
-        <v>1000</v>
+        <v>3.7</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2182,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.24</v>
+        <v>1.73</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2287,19 +2287,19 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="G14" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="H14" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="I14" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="J14" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="K14" t="n">
         <v>4.1</v>
@@ -2317,10 +2317,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>1.24</v>
+        <v>1.87</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-05.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-05.xlsx
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="G2" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="H2" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="I2" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="J2" t="n">
         <v>3.75</v>
@@ -685,13 +685,13 @@
         <v>4.9</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="O2" t="n">
         <v>1.23</v>
@@ -700,61 +700,61 @@
         <v>2.1</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="R2" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="S2" t="n">
         <v>2.6</v>
       </c>
       <c r="T2" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="U2" t="n">
-        <v>1.01</v>
+        <v>2.12</v>
       </c>
       <c r="V2" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="W2" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="X2" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Y2" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z2" t="n">
         <v>13.5</v>
       </c>
-      <c r="Z2" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AA2" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AB2" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AC2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AD2" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="AE2" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AH2" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
@@ -805,7 +805,7 @@
         <v>2.64</v>
       </c>
       <c r="G3" t="n">
-        <v>3.1</v>
+        <v>2.92</v>
       </c>
       <c r="H3" t="n">
         <v>3.25</v>
@@ -820,16 +820,16 @@
         <v>3.05</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="P3" t="n">
         <v>1.41</v>
@@ -838,76 +838,76 @@
         <v>3.1</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -937,34 +937,34 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="G4" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="H4" t="n">
         <v>5.2</v>
       </c>
       <c r="I4" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="J4" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K4" t="n">
         <v>4.5</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="P4" t="n">
         <v>1.97</v>
@@ -973,76 +973,76 @@
         <v>1.84</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -1075,7 +1075,7 @@
         <v>1.7</v>
       </c>
       <c r="G5" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="H5" t="n">
         <v>5.1</v>
@@ -1084,52 +1084,52 @@
         <v>6.2</v>
       </c>
       <c r="J5" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K5" t="n">
         <v>4.2</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
         <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="P5" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="Q5" t="n">
         <v>2.1</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="T5" t="n">
-        <v>1.97</v>
+        <v>1.94</v>
       </c>
       <c r="U5" t="n">
         <v>1.84</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
         <v>1000</v>
@@ -1138,7 +1138,7 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AC5" t="n">
         <v>9.800000000000001</v>
@@ -1510,7 +1510,7 @@
         <v>1.37</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.25</v>
+        <v>2.92</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1621,7 +1621,7 @@
         <v>5</v>
       </c>
       <c r="I9" t="n">
-        <v>1000</v>
+        <v>870</v>
       </c>
       <c r="J9" t="n">
         <v>3.35</v>
@@ -1636,16 +1636,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>2.78</v>
+        <v>2.54</v>
       </c>
       <c r="O9" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="P9" t="n">
         <v>1.61</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.38</v>
+        <v>2.18</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1885,16 +1885,16 @@
         <v>2.78</v>
       </c>
       <c r="G11" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="H11" t="n">
         <v>2.26</v>
       </c>
       <c r="I11" t="n">
-        <v>2.82</v>
+        <v>2.66</v>
       </c>
       <c r="J11" t="n">
-        <v>2.74</v>
+        <v>2.36</v>
       </c>
       <c r="K11" t="n">
         <v>3.5</v>
@@ -2017,13 +2017,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="G12" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="H12" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="I12" t="n">
         <v>3.85</v>
@@ -2032,7 +2032,7 @@
         <v>3.35</v>
       </c>
       <c r="K12" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="Q12" t="n">
         <v>2.06</v>
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="G14" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="H14" t="n">
         <v>6.2</v>
       </c>
       <c r="I14" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="J14" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K14" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-05.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-05.xlsx
@@ -940,7 +940,7 @@
         <v>1.66</v>
       </c>
       <c r="G4" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="H4" t="n">
         <v>5.2</v>
@@ -967,7 +967,7 @@
         <v>1.23</v>
       </c>
       <c r="P4" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="Q4" t="n">
         <v>1.84</v>
@@ -988,7 +988,7 @@
         <v>1.18</v>
       </c>
       <c r="W4" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1096,7 +1096,7 @@
         <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="O5" t="n">
         <v>1.35</v>
@@ -1210,13 +1210,13 @@
         <v>1.22</v>
       </c>
       <c r="G6" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="H6" t="n">
         <v>13.5</v>
       </c>
       <c r="I6" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="J6" t="n">
         <v>7</v>
@@ -1225,16 +1225,16 @@
         <v>8.6</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="P6" t="n">
         <v>3</v>
@@ -1243,76 +1243,76 @@
         <v>1.39</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AM6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -1342,34 +1342,34 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>5.6</v>
+        <v>15</v>
       </c>
       <c r="G7" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="H7" t="n">
         <v>1.17</v>
       </c>
       <c r="I7" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="J7" t="n">
-        <v>8.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="K7" t="n">
         <v>11.5</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="P7" t="n">
         <v>3.1</v>
@@ -1378,76 +1378,76 @@
         <v>1.35</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="8">
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="G8" t="n">
         <v>2.72</v>
@@ -1486,7 +1486,7 @@
         <v>3.55</v>
       </c>
       <c r="I8" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J8" t="n">
         <v>2.7</v>
@@ -1495,94 +1495,94 @@
         <v>2.98</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="P8" t="n">
         <v>1.37</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.92</v>
+        <v>3.25</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
@@ -1618,106 +1618,106 @@
         <v>1.85</v>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="I9" t="n">
-        <v>870</v>
+        <v>7</v>
       </c>
       <c r="J9" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="K9" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="N9" t="n">
-        <v>2.54</v>
+        <v>2.76</v>
       </c>
       <c r="O9" t="n">
         <v>1.48</v>
       </c>
       <c r="P9" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.18</v>
+        <v>2.4</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
@@ -1750,7 +1750,7 @@
         <v>1.71</v>
       </c>
       <c r="G10" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="H10" t="n">
         <v>5.3</v>
@@ -1759,22 +1759,22 @@
         <v>7</v>
       </c>
       <c r="J10" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K10" t="n">
         <v>4.1</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="P10" t="n">
         <v>1.73</v>
@@ -1783,76 +1783,76 @@
         <v>2.1</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AK10" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
@@ -1891,10 +1891,10 @@
         <v>2.26</v>
       </c>
       <c r="I11" t="n">
-        <v>2.66</v>
+        <v>2.82</v>
       </c>
       <c r="J11" t="n">
-        <v>2.36</v>
+        <v>2.74</v>
       </c>
       <c r="K11" t="n">
         <v>3.5</v>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="G12" t="n">
         <v>2.32</v>
@@ -2032,7 +2032,7 @@
         <v>3.35</v>
       </c>
       <c r="K12" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>1.81</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-05.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-05.xlsx
@@ -694,7 +694,7 @@
         <v>3.6</v>
       </c>
       <c r="O2" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P2" t="n">
         <v>2.1</v>
@@ -721,10 +721,10 @@
         <v>1.19</v>
       </c>
       <c r="X2" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="Y2" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="Z2" t="n">
         <v>13.5</v>
@@ -733,13 +733,13 @@
         <v>22</v>
       </c>
       <c r="AB2" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="AC2" t="n">
-        <v>11</v>
+        <v>970</v>
       </c>
       <c r="AD2" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="AE2" t="n">
         <v>21</v>
@@ -748,10 +748,10 @@
         <v>48</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>970</v>
       </c>
       <c r="AH2" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AI2" t="n">
         <v>38</v>
@@ -940,7 +940,7 @@
         <v>1.66</v>
       </c>
       <c r="G4" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="H4" t="n">
         <v>5.2</v>
@@ -988,7 +988,7 @@
         <v>1.18</v>
       </c>
       <c r="W4" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1033,13 +1033,13 @@
         <v>25</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1075,19 +1075,19 @@
         <v>1.7</v>
       </c>
       <c r="G5" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="H5" t="n">
-        <v>5.1</v>
+        <v>6</v>
       </c>
       <c r="I5" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="J5" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K5" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1096,10 +1096,10 @@
         <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="O5" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P5" t="n">
         <v>1.79</v>
@@ -1108,7 +1108,7 @@
         <v>2.1</v>
       </c>
       <c r="R5" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="S5" t="n">
         <v>3.7</v>
@@ -1120,10 +1120,10 @@
         <v>1.84</v>
       </c>
       <c r="V5" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="W5" t="n">
-        <v>2.18</v>
+        <v>2.26</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1138,7 +1138,7 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC5" t="n">
         <v>9.800000000000001</v>
@@ -1153,7 +1153,7 @@
         <v>11.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
         <v>1000</v>
@@ -1213,13 +1213,13 @@
         <v>1.26</v>
       </c>
       <c r="H6" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="I6" t="n">
         <v>18</v>
       </c>
       <c r="J6" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="K6" t="n">
         <v>8.6</v>
@@ -1231,85 +1231,85 @@
         <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O6" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="P6" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="R6" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="S6" t="n">
-        <v>1.84</v>
+        <v>1.97</v>
       </c>
       <c r="T6" t="n">
-        <v>1.81</v>
+        <v>1.94</v>
       </c>
       <c r="U6" t="n">
-        <v>1.72</v>
+        <v>1.86</v>
       </c>
       <c r="V6" t="n">
         <v>1.05</v>
       </c>
       <c r="W6" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="Y6" t="n">
-        <v>75</v>
+        <v>970</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AA6" t="n">
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AC6" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AD6" t="n">
-        <v>70</v>
+        <v>970</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AF6" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>17.5</v>
+        <v>14</v>
       </c>
       <c r="AH6" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AJ6" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AL6" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>3.7</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1357,7 +1357,7 @@
         <v>7.8</v>
       </c>
       <c r="K7" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1396,7 +1396,7 @@
         <v>1.04</v>
       </c>
       <c r="X7" t="n">
-        <v>48</v>
+        <v>970</v>
       </c>
       <c r="Y7" t="n">
         <v>14</v>
@@ -1408,10 +1408,10 @@
         <v>10.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>65</v>
+        <v>970</v>
       </c>
       <c r="AC7" t="n">
-        <v>25</v>
+        <v>970</v>
       </c>
       <c r="AD7" t="n">
         <v>15</v>
@@ -1423,10 +1423,10 @@
         <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>75</v>
+        <v>970</v>
       </c>
       <c r="AH7" t="n">
-        <v>48</v>
+        <v>970</v>
       </c>
       <c r="AI7" t="n">
         <v>48</v>
@@ -1519,10 +1519,10 @@
         <v>6.4</v>
       </c>
       <c r="T8" t="n">
-        <v>2.16</v>
+        <v>2.4</v>
       </c>
       <c r="U8" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="V8" t="n">
         <v>1.32</v>
@@ -1618,7 +1618,7 @@
         <v>1.85</v>
       </c>
       <c r="H9" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="I9" t="n">
         <v>7</v>
@@ -1750,7 +1750,7 @@
         <v>1.71</v>
       </c>
       <c r="G10" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="H10" t="n">
         <v>5.3</v>
@@ -1771,7 +1771,7 @@
         <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>1.73</v>
+        <v>2.62</v>
       </c>
       <c r="O10" t="n">
         <v>1.38</v>
@@ -1786,13 +1786,13 @@
         <v>1.21</v>
       </c>
       <c r="S10" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="T10" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="U10" t="n">
-        <v>1.01</v>
+        <v>1.68</v>
       </c>
       <c r="V10" t="n">
         <v>1.16</v>
@@ -1804,7 +1804,7 @@
         <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="Z10" t="n">
         <v>65</v>
@@ -1819,7 +1819,7 @@
         <v>11.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>30</v>
+        <v>970</v>
       </c>
       <c r="AE10" t="n">
         <v>1000</v>
@@ -1831,7 +1831,7 @@
         <v>14.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
       <c r="AI10" t="n">
         <v>1000</v>
@@ -1849,7 +1849,7 @@
         <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1882,112 +1882,112 @@
         </is>
       </c>
       <c r="F11" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H11" t="n">
         <v>2.78</v>
       </c>
-      <c r="G11" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2.26</v>
-      </c>
       <c r="I11" t="n">
-        <v>2.82</v>
+        <v>3.2</v>
       </c>
       <c r="J11" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="K11" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="P11" t="n">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.08</v>
+        <v>2.62</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AM11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AO11" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
@@ -2032,7 +2032,7 @@
         <v>3.35</v>
       </c>
       <c r="K12" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-05.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-05.xlsx
@@ -706,7 +706,7 @@
         <v>1.36</v>
       </c>
       <c r="S2" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="T2" t="n">
         <v>1.76</v>
@@ -727,7 +727,7 @@
         <v>970</v>
       </c>
       <c r="Z2" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="AA2" t="n">
         <v>22</v>
@@ -832,10 +832,10 @@
         <v>1.69</v>
       </c>
       <c r="P3" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="R3" t="n">
         <v>1.14</v>
@@ -850,7 +850,7 @@
         <v>1.64</v>
       </c>
       <c r="V3" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="W3" t="n">
         <v>1.52</v>
@@ -955,7 +955,7 @@
         <v>4.5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M4" t="n">
         <v>1.06</v>
@@ -976,13 +976,13 @@
         <v>1.32</v>
       </c>
       <c r="S4" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="T4" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="U4" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="V4" t="n">
         <v>1.18</v>
@@ -1240,7 +1240,7 @@
         <v>3.05</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="R6" t="n">
         <v>1.82</v>
@@ -1249,7 +1249,7 @@
         <v>1.97</v>
       </c>
       <c r="T6" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="U6" t="n">
         <v>1.86</v>
@@ -1375,7 +1375,7 @@
         <v>3.1</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="R7" t="n">
         <v>1.84</v>
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="G10" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="H10" t="n">
         <v>5.3</v>
@@ -1762,46 +1762,46 @@
         <v>3.5</v>
       </c>
       <c r="K10" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>2.62</v>
+        <v>2.52</v>
       </c>
       <c r="O10" t="n">
         <v>1.38</v>
       </c>
       <c r="P10" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R10" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="S10" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="T10" t="n">
-        <v>1.83</v>
+        <v>1.05</v>
       </c>
       <c r="U10" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="V10" t="n">
         <v>1.16</v>
       </c>
       <c r="W10" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="X10" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Y10" t="n">
         <v>970</v>
@@ -1894,7 +1894,7 @@
         <v>3.2</v>
       </c>
       <c r="J11" t="n">
-        <v>2.76</v>
+        <v>2.82</v>
       </c>
       <c r="K11" t="n">
         <v>3.2</v>
@@ -1903,7 +1903,7 @@
         <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N11" t="n">
         <v>2.46</v>
@@ -1921,7 +1921,7 @@
         <v>1.17</v>
       </c>
       <c r="S11" t="n">
-        <v>4.9</v>
+        <v>5.6</v>
       </c>
       <c r="T11" t="n">
         <v>2.1</v>
@@ -2023,7 +2023,7 @@
         <v>2.32</v>
       </c>
       <c r="H12" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I12" t="n">
         <v>3.85</v>
@@ -2032,19 +2032,19 @@
         <v>3.35</v>
       </c>
       <c r="K12" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="P12" t="n">
         <v>1.81</v>
@@ -2053,76 +2053,76 @@
         <v>2.08</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AK12" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AM12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AO12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
@@ -2152,112 +2152,112 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="G13" t="n">
-        <v>2.68</v>
+        <v>2.38</v>
       </c>
       <c r="H13" t="n">
-        <v>2.8</v>
+        <v>3.7</v>
       </c>
       <c r="I13" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="J13" t="n">
-        <v>2.84</v>
+        <v>3.05</v>
       </c>
       <c r="K13" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P13" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.08</v>
+        <v>2.3</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AM13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AO13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
@@ -2287,10 +2287,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="G14" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H14" t="n">
         <v>6.2</v>
@@ -2299,22 +2299,22 @@
         <v>6.8</v>
       </c>
       <c r="J14" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="K14" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="P14" t="n">
         <v>1.87</v>
@@ -2323,76 +2323,76 @@
         <v>2.02</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Z14" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AK14" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AM14" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AN14" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-05.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-05.xlsx
@@ -667,46 +667,46 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="G2" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="H2" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="I2" t="n">
-        <v>1.91</v>
+        <v>2.04</v>
       </c>
       <c r="J2" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="K2" t="n">
-        <v>4.9</v>
+        <v>7.2</v>
       </c>
       <c r="L2" t="n">
         <v>1.31</v>
       </c>
       <c r="M2" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>3.6</v>
+        <v>2.16</v>
       </c>
       <c r="O2" t="n">
         <v>1.24</v>
       </c>
       <c r="P2" t="n">
-        <v>2.1</v>
+        <v>1.87</v>
       </c>
       <c r="Q2" t="n">
         <v>1.69</v>
       </c>
       <c r="R2" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="S2" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="T2" t="n">
         <v>1.76</v>
@@ -715,46 +715,46 @@
         <v>2.12</v>
       </c>
       <c r="V2" t="n">
-        <v>2.1</v>
+        <v>1.96</v>
       </c>
       <c r="W2" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="X2" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="G3" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="H3" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>3.65</v>
+        <v>3.95</v>
       </c>
       <c r="J3" t="n">
-        <v>2.74</v>
+        <v>2.62</v>
       </c>
       <c r="K3" t="n">
-        <v>3.05</v>
+        <v>3.35</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -832,10 +832,10 @@
         <v>1.69</v>
       </c>
       <c r="P3" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="R3" t="n">
         <v>1.14</v>
@@ -955,13 +955,13 @@
         <v>4.5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M4" t="n">
         <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="O4" t="n">
         <v>1.23</v>
@@ -970,16 +970,16 @@
         <v>1.96</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="R4" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S4" t="n">
-        <v>2.82</v>
+        <v>2.74</v>
       </c>
       <c r="T4" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="U4" t="n">
         <v>1.73</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="G5" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="H5" t="n">
         <v>6</v>
       </c>
       <c r="I5" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="J5" t="n">
         <v>3.65</v>
       </c>
       <c r="K5" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1102,10 +1102,10 @@
         <v>1.36</v>
       </c>
       <c r="P5" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="R5" t="n">
         <v>1.3</v>
@@ -1117,13 +1117,13 @@
         <v>1.94</v>
       </c>
       <c r="U5" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="V5" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="W5" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1138,10 +1138,10 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
         <v>1000</v>
@@ -1150,7 +1150,7 @@
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
         <v>1000</v>
@@ -1171,7 +1171,7 @@
         <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN5" t="n">
         <v>1000</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="G6" t="n">
         <v>1.26</v>
@@ -1216,13 +1216,13 @@
         <v>14</v>
       </c>
       <c r="I6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J6" t="n">
         <v>7.2</v>
       </c>
       <c r="K6" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
@@ -1231,28 +1231,28 @@
         <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="O6" t="n">
         <v>1.13</v>
       </c>
       <c r="P6" t="n">
-        <v>3.05</v>
+        <v>2.76</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="R6" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="S6" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="T6" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="U6" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="V6" t="n">
         <v>1.05</v>
@@ -1261,55 +1261,55 @@
         <v>4.8</v>
       </c>
       <c r="X6" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.7</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1351,13 +1351,13 @@
         <v>1.17</v>
       </c>
       <c r="I7" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="J7" t="n">
-        <v>7.8</v>
+        <v>6.8</v>
       </c>
       <c r="K7" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1366,31 +1366,31 @@
         <v>1.02</v>
       </c>
       <c r="N7" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P7" t="n">
-        <v>3.1</v>
+        <v>2.98</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="R7" t="n">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="S7" t="n">
-        <v>1.9</v>
+        <v>2.08</v>
       </c>
       <c r="T7" t="n">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="U7" t="n">
-        <v>1.66</v>
+        <v>1.75</v>
       </c>
       <c r="V7" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="W7" t="n">
         <v>1.04</v>
@@ -1399,13 +1399,13 @@
         <v>970</v>
       </c>
       <c r="Y7" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z7" t="n">
         <v>10.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AB7" t="n">
         <v>970</v>
@@ -1414,7 +1414,7 @@
         <v>970</v>
       </c>
       <c r="AD7" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AE7" t="n">
         <v>16.5</v>
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.5</v>
+        <v>2.68</v>
       </c>
       <c r="G8" t="n">
-        <v>2.72</v>
+        <v>2.96</v>
       </c>
       <c r="H8" t="n">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="I8" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="J8" t="n">
         <v>2.7</v>
@@ -1498,7 +1498,7 @@
         <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N8" t="n">
         <v>2.16</v>
@@ -1513,7 +1513,7 @@
         <v>3.25</v>
       </c>
       <c r="R8" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="S8" t="n">
         <v>6.4</v>
@@ -1615,7 +1615,7 @@
         <v>1.73</v>
       </c>
       <c r="G9" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="H9" t="n">
         <v>5.7</v>
@@ -1624,7 +1624,7 @@
         <v>7</v>
       </c>
       <c r="J9" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K9" t="n">
         <v>3.75</v>
@@ -1636,7 +1636,7 @@
         <v>1.09</v>
       </c>
       <c r="N9" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="O9" t="n">
         <v>1.48</v>
@@ -1645,13 +1645,13 @@
         <v>1.59</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="R9" t="n">
         <v>1.22</v>
       </c>
       <c r="S9" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="T9" t="n">
         <v>2.2</v>
@@ -1678,10 +1678,10 @@
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AC9" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AD9" t="n">
         <v>1000</v>
@@ -1690,10 +1690,10 @@
         <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH9" t="n">
         <v>1000</v>
@@ -1747,76 +1747,76 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="G10" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="H10" t="n">
         <v>5.3</v>
       </c>
       <c r="I10" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="J10" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K10" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="N10" t="n">
-        <v>2.52</v>
+        <v>3.05</v>
       </c>
       <c r="O10" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P10" t="n">
         <v>1.71</v>
       </c>
       <c r="Q10" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="W10" t="n">
         <v>2.12</v>
       </c>
-      <c r="R10" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S10" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="W10" t="n">
-        <v>2.1</v>
-      </c>
       <c r="X10" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
         <v>970</v>
       </c>
       <c r="Z10" t="n">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AB10" t="n">
-        <v>10</v>
+        <v>7.6</v>
       </c>
       <c r="AC10" t="n">
-        <v>11.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD10" t="n">
         <v>970</v>
@@ -1825,31 +1825,31 @@
         <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="AG10" t="n">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="AH10" t="n">
         <v>970</v>
       </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ10" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="AK10" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AL10" t="n">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN10" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1912,10 +1912,10 @@
         <v>1.55</v>
       </c>
       <c r="P11" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="R11" t="n">
         <v>1.17</v>
@@ -1936,37 +1936,37 @@
         <v>1.44</v>
       </c>
       <c r="X11" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.6</v>
+        <v>9.6</v>
       </c>
       <c r="Z11" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AA11" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AB11" t="n">
-        <v>8.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AC11" t="n">
         <v>7.2</v>
       </c>
       <c r="AD11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG11" t="n">
         <v>14.5</v>
       </c>
-      <c r="AE11" t="n">
-        <v>48</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>15</v>
-      </c>
       <c r="AH11" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AI11" t="n">
         <v>80</v>
@@ -1975,19 +1975,19 @@
         <v>60</v>
       </c>
       <c r="AK11" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AL11" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AM11" t="n">
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
+        <v>60</v>
+      </c>
+      <c r="AO11" t="n">
         <v>65</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>60</v>
       </c>
     </row>
     <row r="12">
@@ -2038,88 +2038,88 @@
         <v>1.45</v>
       </c>
       <c r="M12" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="O12" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P12" t="n">
         <v>1.81</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="R12" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="S12" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="T12" t="n">
-        <v>1.05</v>
+        <v>1.79</v>
       </c>
       <c r="U12" t="n">
-        <v>1.9</v>
+        <v>2.06</v>
       </c>
       <c r="V12" t="n">
         <v>1.35</v>
       </c>
       <c r="W12" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="X12" t="n">
         <v>15.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="AA12" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AB12" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD12" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="AE12" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AF12" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AG12" t="n">
-        <v>15.5</v>
+        <v>12</v>
       </c>
       <c r="AH12" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN12" t="n">
         <v>22</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>36</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>25</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2152,34 +2152,34 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="G13" t="n">
-        <v>2.38</v>
+        <v>2.64</v>
       </c>
       <c r="H13" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="I13" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="J13" t="n">
-        <v>3.05</v>
+        <v>2.74</v>
       </c>
       <c r="K13" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L13" t="n">
         <v>1.01</v>
       </c>
       <c r="M13" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N13" t="n">
-        <v>2.38</v>
+        <v>2.82</v>
       </c>
       <c r="O13" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="P13" t="n">
         <v>1.62</v>
@@ -2188,73 +2188,73 @@
         <v>2.3</v>
       </c>
       <c r="R13" t="n">
-        <v>1.16</v>
+        <v>1.23</v>
       </c>
       <c r="S13" t="n">
-        <v>3.45</v>
+        <v>4.1</v>
       </c>
       <c r="T13" t="n">
-        <v>1.67</v>
+        <v>1.96</v>
       </c>
       <c r="U13" t="n">
-        <v>1.6</v>
+        <v>1.84</v>
       </c>
       <c r="V13" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="W13" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="X13" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>17.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ13" t="n">
         <v>40</v>
       </c>
-      <c r="AA13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>25</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>90</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>100</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>46</v>
-      </c>
       <c r="AK13" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AL13" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM13" t="n">
         <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AO13" t="n">
         <v>1000</v>
@@ -2290,7 +2290,7 @@
         <v>1.67</v>
       </c>
       <c r="G14" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="H14" t="n">
         <v>6.2</v>
@@ -2299,7 +2299,7 @@
         <v>6.8</v>
       </c>
       <c r="J14" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="K14" t="n">
         <v>4.1</v>
@@ -2311,7 +2311,7 @@
         <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="O14" t="n">
         <v>1.34</v>
@@ -2329,16 +2329,16 @@
         <v>3.6</v>
       </c>
       <c r="T14" t="n">
-        <v>1.01</v>
+        <v>1.99</v>
       </c>
       <c r="U14" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="V14" t="n">
         <v>1.17</v>
       </c>
       <c r="W14" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="X14" t="n">
         <v>13.5</v>
@@ -2350,22 +2350,22 @@
         <v>55</v>
       </c>
       <c r="AA14" t="n">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="AB14" t="n">
         <v>7.8</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD14" t="n">
         <v>24</v>
       </c>
       <c r="AE14" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AF14" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AG14" t="n">
         <v>9.800000000000001</v>
@@ -2389,10 +2389,10 @@
         <v>160</v>
       </c>
       <c r="AN14" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-05.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-05.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO14"/>
+  <dimension ref="A1:AO16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,46 +667,46 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="G2" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="H2" t="n">
-        <v>1.6</v>
+        <v>1.71</v>
       </c>
       <c r="I2" t="n">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="J2" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="K2" t="n">
-        <v>7.2</v>
+        <v>4.9</v>
       </c>
       <c r="L2" t="n">
         <v>1.31</v>
       </c>
       <c r="M2" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>2.16</v>
+        <v>3.75</v>
       </c>
       <c r="O2" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="P2" t="n">
-        <v>1.87</v>
+        <v>2.1</v>
       </c>
       <c r="Q2" t="n">
         <v>1.69</v>
       </c>
       <c r="R2" t="n">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="S2" t="n">
-        <v>2.58</v>
+        <v>2.76</v>
       </c>
       <c r="T2" t="n">
         <v>1.76</v>
@@ -715,10 +715,10 @@
         <v>2.12</v>
       </c>
       <c r="V2" t="n">
-        <v>1.96</v>
+        <v>2.04</v>
       </c>
       <c r="W2" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -844,10 +844,10 @@
         <v>6.8</v>
       </c>
       <c r="T3" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="U3" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="V3" t="n">
         <v>1.38</v>
@@ -940,7 +940,7 @@
         <v>1.66</v>
       </c>
       <c r="G4" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="H4" t="n">
         <v>5.2</v>
@@ -961,85 +961,85 @@
         <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="P4" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="Q4" t="n">
         <v>1.83</v>
       </c>
       <c r="R4" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="S4" t="n">
-        <v>2.74</v>
+        <v>3.15</v>
       </c>
       <c r="T4" t="n">
-        <v>1.64</v>
+        <v>1.83</v>
       </c>
       <c r="U4" t="n">
-        <v>1.73</v>
+        <v>1.98</v>
       </c>
       <c r="V4" t="n">
         <v>1.18</v>
       </c>
       <c r="W4" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF4" t="n">
         <v>12</v>
       </c>
-      <c r="AC4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>30</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AG4" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AK4" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AL4" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1225,7 +1225,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.19</v>
       </c>
       <c r="M6" t="n">
         <v>1.02</v>
@@ -1237,13 +1237,13 @@
         <v>1.13</v>
       </c>
       <c r="P6" t="n">
-        <v>2.76</v>
+        <v>3</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="R6" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="S6" t="n">
         <v>2</v>
@@ -1252,7 +1252,7 @@
         <v>1.96</v>
       </c>
       <c r="U6" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="V6" t="n">
         <v>1.05</v>
@@ -1261,55 +1261,55 @@
         <v>4.8</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="Y6" t="n">
         <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AA6" t="n">
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>3.75</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1387,7 +1387,7 @@
         <v>2.16</v>
       </c>
       <c r="U7" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="V7" t="n">
         <v>5.5</v>
@@ -1402,7 +1402,7 @@
         <v>13.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AA7" t="n">
         <v>10</v>
@@ -1507,7 +1507,7 @@
         <v>1.73</v>
       </c>
       <c r="P8" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="Q8" t="n">
         <v>3.25</v>
@@ -1522,55 +1522,55 @@
         <v>2.4</v>
       </c>
       <c r="U8" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="V8" t="n">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
       <c r="W8" t="n">
-        <v>1.58</v>
+        <v>1.51</v>
       </c>
       <c r="X8" t="n">
         <v>6.6</v>
       </c>
       <c r="Y8" t="n">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z8" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AA8" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AB8" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="AC8" t="n">
         <v>7.2</v>
       </c>
       <c r="AD8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE8" t="n">
         <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>15</v>
+        <v>19.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>14.5</v>
+        <v>18.5</v>
       </c>
       <c r="AH8" t="n">
         <v>30</v>
       </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AL8" t="n">
         <v>120</v>
@@ -1579,10 +1579,10 @@
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9">
@@ -1765,7 +1765,7 @@
         <v>3.95</v>
       </c>
       <c r="L10" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="M10" t="n">
         <v>1.09</v>
@@ -1882,19 +1882,19 @@
         </is>
       </c>
       <c r="F11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J11" t="n">
         <v>2.84</v>
-      </c>
-      <c r="G11" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="I11" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2.82</v>
       </c>
       <c r="K11" t="n">
         <v>3.2</v>
@@ -1906,7 +1906,7 @@
         <v>1.13</v>
       </c>
       <c r="N11" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="O11" t="n">
         <v>1.55</v>
@@ -1930,25 +1930,25 @@
         <v>1.75</v>
       </c>
       <c r="V11" t="n">
-        <v>1.46</v>
+        <v>1.37</v>
       </c>
       <c r="W11" t="n">
-        <v>1.44</v>
+        <v>1.54</v>
       </c>
       <c r="X11" t="n">
-        <v>8.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="Z11" t="n">
         <v>22</v>
       </c>
       <c r="AA11" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AB11" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC11" t="n">
         <v>7.2</v>
@@ -1957,10 +1957,10 @@
         <v>17</v>
       </c>
       <c r="AE11" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG11" t="n">
         <v>14.5</v>
@@ -1969,13 +1969,13 @@
         <v>28</v>
       </c>
       <c r="AI11" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AJ11" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK11" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AL11" t="n">
         <v>75</v>
@@ -1984,10 +1984,10 @@
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AO11" t="n">
-        <v>65</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12">
@@ -2155,16 +2155,16 @@
         <v>2.16</v>
       </c>
       <c r="G13" t="n">
-        <v>2.64</v>
+        <v>2.52</v>
       </c>
       <c r="H13" t="n">
         <v>3.65</v>
       </c>
       <c r="I13" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J13" t="n">
-        <v>2.74</v>
+        <v>3.05</v>
       </c>
       <c r="K13" t="n">
         <v>3.5</v>
@@ -2191,7 +2191,7 @@
         <v>1.23</v>
       </c>
       <c r="S13" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="T13" t="n">
         <v>1.96</v>
@@ -2393,6 +2393,276 @@
       </c>
       <c r="AO14" t="n">
         <v>130</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Cruzeiro MG</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Coritiba</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H15" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="I15" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="J15" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K15" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N15" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S15" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="W15" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="X15" t="n">
+        <v>970</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>970</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>110</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>490</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>230</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>200</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>970</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>280</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Millonarios</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Deportivo Pereira</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="H16" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="I16" t="n">
+        <v>12</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K16" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S16" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="W16" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="X16" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>340</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>320</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>470</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-05.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-05.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="G2" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="H2" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="I2" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="J2" t="n">
         <v>3.55</v>
       </c>
       <c r="K2" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L2" t="n">
         <v>1.31</v>
@@ -691,40 +691,40 @@
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="O2" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P2" t="n">
-        <v>2.1</v>
+        <v>1.94</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="R2" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="S2" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="T2" t="n">
         <v>1.76</v>
       </c>
       <c r="U2" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="V2" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="W2" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Z2" t="n">
         <v>1000</v>
@@ -772,7 +772,7 @@
         <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="G3" t="n">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="H3" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="K3" t="n">
         <v>3</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="K3" t="n">
-        <v>3.35</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -826,16 +826,16 @@
         <v>1.14</v>
       </c>
       <c r="N3" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="O3" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="P3" t="n">
         <v>1.41</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="R3" t="n">
         <v>1.14</v>
@@ -844,13 +844,13 @@
         <v>6.8</v>
       </c>
       <c r="T3" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="U3" t="n">
         <v>1.65</v>
       </c>
       <c r="V3" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="W3" t="n">
         <v>1.52</v>
@@ -895,7 +895,7 @@
         <v>60</v>
       </c>
       <c r="AK3" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
         <v>110</v>
@@ -946,7 +946,7 @@
         <v>5.2</v>
       </c>
       <c r="I4" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="J4" t="n">
         <v>3.8</v>
@@ -955,22 +955,22 @@
         <v>4.5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M4" t="n">
         <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="O4" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P4" t="n">
         <v>1.97</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="R4" t="n">
         <v>1.37</v>
@@ -1015,7 +1015,7 @@
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG4" t="n">
         <v>11.5</v>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="G5" t="n">
         <v>1.78</v>
@@ -1084,7 +1084,7 @@
         <v>6.8</v>
       </c>
       <c r="J5" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K5" t="n">
         <v>4.2</v>
@@ -1105,7 +1105,7 @@
         <v>1.78</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R5" t="n">
         <v>1.3</v>
@@ -1114,7 +1114,7 @@
         <v>3.7</v>
       </c>
       <c r="T5" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="U5" t="n">
         <v>1.87</v>
@@ -1213,46 +1213,46 @@
         <v>1.26</v>
       </c>
       <c r="H6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J6" t="n">
         <v>7.2</v>
       </c>
       <c r="K6" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="L6" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="M6" t="n">
         <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="O6" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P6" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="R6" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="S6" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="T6" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="U6" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="V6" t="n">
         <v>1.05</v>
@@ -1261,28 +1261,28 @@
         <v>4.8</v>
       </c>
       <c r="X6" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="Z6" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AA6" t="n">
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC6" t="n">
         <v>21</v>
       </c>
       <c r="AD6" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="AF6" t="n">
         <v>11</v>
@@ -1291,25 +1291,25 @@
         <v>14</v>
       </c>
       <c r="AH6" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AI6" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AJ6" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AK6" t="n">
         <v>16</v>
       </c>
       <c r="AL6" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM6" t="n">
         <v>170</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.75</v>
+        <v>3.45</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1354,10 +1354,10 @@
         <v>1.21</v>
       </c>
       <c r="J7" t="n">
-        <v>6.8</v>
+        <v>7.8</v>
       </c>
       <c r="K7" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1366,31 +1366,31 @@
         <v>1.02</v>
       </c>
       <c r="N7" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="O7" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="P7" t="n">
-        <v>2.98</v>
+        <v>2.92</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="R7" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="S7" t="n">
         <v>2.08</v>
       </c>
       <c r="T7" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="U7" t="n">
         <v>1.78</v>
       </c>
       <c r="V7" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="W7" t="n">
         <v>1.04</v>
@@ -1399,13 +1399,13 @@
         <v>970</v>
       </c>
       <c r="Y7" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z7" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="AA7" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AB7" t="n">
         <v>970</v>
@@ -1477,34 +1477,34 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.68</v>
+        <v>2.84</v>
       </c>
       <c r="G8" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I8" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="J8" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="K8" t="n">
-        <v>2.98</v>
+        <v>2.94</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="N8" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="O8" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="P8" t="n">
         <v>1.38</v>
@@ -1522,28 +1522,28 @@
         <v>2.4</v>
       </c>
       <c r="U8" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="V8" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W8" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="X8" t="n">
         <v>6.6</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="Z8" t="n">
         <v>22</v>
       </c>
       <c r="AA8" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AB8" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AC8" t="n">
         <v>7.2</v>
@@ -1564,7 +1564,7 @@
         <v>30</v>
       </c>
       <c r="AI8" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AJ8" t="n">
         <v>55</v>
@@ -1582,7 +1582,7 @@
         <v>85</v>
       </c>
       <c r="AO8" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
@@ -1636,28 +1636,28 @@
         <v>1.09</v>
       </c>
       <c r="N9" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="O9" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="P9" t="n">
         <v>1.59</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="R9" t="n">
         <v>1.22</v>
       </c>
       <c r="S9" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="T9" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="U9" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="V9" t="n">
         <v>1.17</v>
@@ -1678,10 +1678,10 @@
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AC9" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD9" t="n">
         <v>1000</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="G10" t="n">
         <v>1.88</v>
@@ -1774,13 +1774,13 @@
         <v>3.05</v>
       </c>
       <c r="O10" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P10" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="R10" t="n">
         <v>1.26</v>
@@ -1789,7 +1789,7 @@
         <v>4</v>
       </c>
       <c r="T10" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U10" t="n">
         <v>1.82</v>
@@ -1843,7 +1843,7 @@
         <v>22</v>
       </c>
       <c r="AL10" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AM10" t="n">
         <v>180</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="G11" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="H11" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I11" t="n">
         <v>3.7</v>
       </c>
       <c r="J11" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="K11" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
@@ -1906,7 +1906,7 @@
         <v>1.13</v>
       </c>
       <c r="N11" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="O11" t="n">
         <v>1.55</v>
@@ -1927,7 +1927,7 @@
         <v>2.1</v>
       </c>
       <c r="U11" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="V11" t="n">
         <v>1.37</v>
@@ -1939,7 +1939,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="Y11" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="Z11" t="n">
         <v>22</v>
@@ -1948,7 +1948,7 @@
         <v>90</v>
       </c>
       <c r="AB11" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC11" t="n">
         <v>7.2</v>
@@ -1957,7 +1957,7 @@
         <v>17</v>
       </c>
       <c r="AE11" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AF11" t="n">
         <v>21</v>
@@ -2020,13 +2020,13 @@
         <v>2.2</v>
       </c>
       <c r="G12" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="H12" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I12" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="J12" t="n">
         <v>3.35</v>
@@ -2056,7 +2056,7 @@
         <v>1.3</v>
       </c>
       <c r="S12" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="T12" t="n">
         <v>1.79</v>
@@ -2068,7 +2068,7 @@
         <v>1.35</v>
       </c>
       <c r="W12" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="X12" t="n">
         <v>15.5</v>
@@ -2155,16 +2155,16 @@
         <v>2.16</v>
       </c>
       <c r="G13" t="n">
-        <v>2.52</v>
+        <v>2.64</v>
       </c>
       <c r="H13" t="n">
         <v>3.65</v>
       </c>
       <c r="I13" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="J13" t="n">
-        <v>3.05</v>
+        <v>2.74</v>
       </c>
       <c r="K13" t="n">
         <v>3.5</v>
@@ -2176,22 +2176,22 @@
         <v>1.1</v>
       </c>
       <c r="N13" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="O13" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P13" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="R13" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="S13" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="T13" t="n">
         <v>1.96</v>
@@ -2203,13 +2203,13 @@
         <v>1.29</v>
       </c>
       <c r="W13" t="n">
-        <v>1.7</v>
+        <v>1.61</v>
       </c>
       <c r="X13" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y13" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Z13" t="n">
         <v>34</v>
@@ -2221,13 +2221,13 @@
         <v>9.4</v>
       </c>
       <c r="AC13" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD13" t="n">
         <v>21</v>
       </c>
       <c r="AE13" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AF13" t="n">
         <v>16</v>
@@ -2239,7 +2239,7 @@
         <v>26</v>
       </c>
       <c r="AI13" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AJ13" t="n">
         <v>40</v>
@@ -2290,7 +2290,7 @@
         <v>1.67</v>
       </c>
       <c r="G14" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="H14" t="n">
         <v>6.2</v>
@@ -2314,7 +2314,7 @@
         <v>3.55</v>
       </c>
       <c r="O14" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P14" t="n">
         <v>1.87</v>
@@ -2329,7 +2329,7 @@
         <v>3.6</v>
       </c>
       <c r="T14" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="U14" t="n">
         <v>1.89</v>
@@ -2338,7 +2338,7 @@
         <v>1.17</v>
       </c>
       <c r="W14" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="X14" t="n">
         <v>13.5</v>
@@ -2353,13 +2353,13 @@
         <v>190</v>
       </c>
       <c r="AB14" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AC14" t="n">
         <v>8.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE14" t="n">
         <v>100</v>
@@ -2392,7 +2392,7 @@
         <v>11.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15">
@@ -2425,13 +2425,13 @@
         <v>1.45</v>
       </c>
       <c r="G15" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="H15" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="I15" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="J15" t="n">
         <v>4.3</v>
@@ -2482,7 +2482,7 @@
         <v>970</v>
       </c>
       <c r="Z15" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AA15" t="n">
         <v>490</v>
@@ -2590,10 +2590,10 @@
         <v>1.6</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="R16" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="S16" t="n">
         <v>4.9</v>
@@ -2632,7 +2632,7 @@
         <v>970</v>
       </c>
       <c r="AE16" t="n">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="AF16" t="n">
         <v>7.4</v>
@@ -2644,7 +2644,7 @@
         <v>970</v>
       </c>
       <c r="AI16" t="n">
-        <v>320</v>
+        <v>280</v>
       </c>
       <c r="AJ16" t="n">
         <v>14</v>
@@ -2656,7 +2656,7 @@
         <v>75</v>
       </c>
       <c r="AM16" t="n">
-        <v>470</v>
+        <v>410</v>
       </c>
       <c r="AN16" t="n">
         <v>13.5</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-05.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-05.xlsx
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="G2" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="H2" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="I2" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="J2" t="n">
         <v>3.55</v>
@@ -685,10 +685,10 @@
         <v>4.8</v>
       </c>
       <c r="L2" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N2" t="n">
         <v>4.1</v>
@@ -697,7 +697,7 @@
         <v>1.27</v>
       </c>
       <c r="P2" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="Q2" t="n">
         <v>1.71</v>
@@ -715,7 +715,7 @@
         <v>2.1</v>
       </c>
       <c r="V2" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="W2" t="n">
         <v>1.2</v>
@@ -724,7 +724,7 @@
         <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Z2" t="n">
         <v>1000</v>
@@ -802,16 +802,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="G3" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="H3" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="I3" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="J3" t="n">
         <v>2.76</v>
@@ -820,7 +820,7 @@
         <v>3</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.61</v>
       </c>
       <c r="M3" t="n">
         <v>1.14</v>
@@ -829,7 +829,7 @@
         <v>2.26</v>
       </c>
       <c r="O3" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="P3" t="n">
         <v>1.41</v>
@@ -850,10 +850,10 @@
         <v>1.65</v>
       </c>
       <c r="V3" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="W3" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="X3" t="n">
         <v>7</v>
@@ -868,7 +868,7 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AC3" t="n">
         <v>8</v>
@@ -880,7 +880,7 @@
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AG3" t="n">
         <v>16.5</v>
@@ -892,7 +892,7 @@
         <v>120</v>
       </c>
       <c r="AJ3" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
         <v>1000</v>
@@ -940,7 +940,7 @@
         <v>1.66</v>
       </c>
       <c r="G4" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="H4" t="n">
         <v>5.2</v>
@@ -961,31 +961,31 @@
         <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P4" t="n">
         <v>1.97</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="R4" t="n">
         <v>1.37</v>
       </c>
       <c r="S4" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="T4" t="n">
         <v>1.83</v>
       </c>
       <c r="U4" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="V4" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="W4" t="n">
         <v>2.24</v>
@@ -994,7 +994,7 @@
         <v>18.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z4" t="n">
         <v>55</v>
@@ -1009,7 +1009,7 @@
         <v>11</v>
       </c>
       <c r="AD4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
@@ -1105,7 +1105,7 @@
         <v>1.78</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R5" t="n">
         <v>1.3</v>
@@ -1225,7 +1225,7 @@
         <v>8.6</v>
       </c>
       <c r="L6" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M6" t="n">
         <v>1.02</v>
@@ -1237,13 +1237,13 @@
         <v>1.14</v>
       </c>
       <c r="P6" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="Q6" t="n">
         <v>1.41</v>
       </c>
       <c r="R6" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="S6" t="n">
         <v>2.06</v>
@@ -1252,7 +1252,7 @@
         <v>2.02</v>
       </c>
       <c r="U6" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="V6" t="n">
         <v>1.05</v>
@@ -1282,10 +1282,10 @@
         <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AF6" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="AG6" t="n">
         <v>14</v>
@@ -1492,7 +1492,7 @@
         <v>2.72</v>
       </c>
       <c r="K8" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
@@ -1501,13 +1501,13 @@
         <v>1.18</v>
       </c>
       <c r="N8" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="O8" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="P8" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="Q8" t="n">
         <v>3.25</v>
@@ -1522,7 +1522,7 @@
         <v>2.4</v>
       </c>
       <c r="U8" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="V8" t="n">
         <v>1.4</v>
@@ -1549,7 +1549,7 @@
         <v>7.2</v>
       </c>
       <c r="AD8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AE8" t="n">
         <v>1000</v>
@@ -1612,58 +1612,58 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="G9" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="H9" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="I9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J9" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K9" t="n">
         <v>3.75</v>
       </c>
       <c r="L9" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="M9" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="N9" t="n">
-        <v>2.76</v>
+        <v>2.82</v>
       </c>
       <c r="O9" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="P9" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="R9" t="n">
         <v>1.22</v>
       </c>
       <c r="S9" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="T9" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="U9" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="V9" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="W9" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="X9" t="n">
         <v>12</v>
@@ -1678,7 +1678,7 @@
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AC9" t="n">
         <v>9.800000000000001</v>
@@ -1690,7 +1690,7 @@
         <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG9" t="n">
         <v>13</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="G10" t="n">
         <v>1.88</v>
@@ -1804,7 +1804,7 @@
         <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
         <v>46</v>
@@ -1837,7 +1837,7 @@
         <v>120</v>
       </c>
       <c r="AJ10" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
         <v>22</v>
@@ -1849,7 +1849,7 @@
         <v>180</v>
       </c>
       <c r="AN10" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="G12" t="n">
         <v>2.34</v>
@@ -2041,16 +2041,16 @@
         <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="O12" t="n">
         <v>1.36</v>
       </c>
       <c r="P12" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="R12" t="n">
         <v>1.3</v>
@@ -2059,7 +2059,7 @@
         <v>3.8</v>
       </c>
       <c r="T12" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U12" t="n">
         <v>2.06</v>
@@ -2071,7 +2071,7 @@
         <v>1.74</v>
       </c>
       <c r="X12" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y12" t="n">
         <v>13.5</v>
@@ -2155,16 +2155,16 @@
         <v>2.16</v>
       </c>
       <c r="G13" t="n">
-        <v>2.64</v>
+        <v>2.48</v>
       </c>
       <c r="H13" t="n">
         <v>3.65</v>
       </c>
       <c r="I13" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J13" t="n">
-        <v>2.74</v>
+        <v>3.05</v>
       </c>
       <c r="K13" t="n">
         <v>3.5</v>
@@ -2191,10 +2191,10 @@
         <v>1.22</v>
       </c>
       <c r="S13" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="T13" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="U13" t="n">
         <v>1.84</v>
@@ -2203,7 +2203,7 @@
         <v>1.29</v>
       </c>
       <c r="W13" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="X13" t="n">
         <v>12</v>
@@ -2290,7 +2290,7 @@
         <v>1.67</v>
       </c>
       <c r="G14" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="H14" t="n">
         <v>6.2</v>
@@ -2317,10 +2317,10 @@
         <v>1.35</v>
       </c>
       <c r="P14" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R14" t="n">
         <v>1.33</v>
@@ -2338,7 +2338,7 @@
         <v>1.17</v>
       </c>
       <c r="W14" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="X14" t="n">
         <v>13.5</v>
@@ -2362,7 +2362,7 @@
         <v>25</v>
       </c>
       <c r="AE14" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AF14" t="n">
         <v>9.4</v>
@@ -2371,7 +2371,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH14" t="n">
-        <v>24</v>
+        <v>970</v>
       </c>
       <c r="AI14" t="n">
         <v>110</v>
@@ -2389,7 +2389,7 @@
         <v>160</v>
       </c>
       <c r="AN14" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AO14" t="n">
         <v>140</v>
@@ -2590,7 +2590,7 @@
         <v>1.6</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="R16" t="n">
         <v>1.22</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-05.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-05.xlsx
@@ -667,25 +667,25 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="G2" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="H2" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="I2" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="J2" t="n">
         <v>3.55</v>
       </c>
       <c r="K2" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L2" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="M2" t="n">
         <v>1.06</v>
@@ -709,10 +709,10 @@
         <v>2.8</v>
       </c>
       <c r="T2" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="U2" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V2" t="n">
         <v>2.04</v>
@@ -736,7 +736,7 @@
         <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD2" t="n">
         <v>1000</v>
@@ -772,7 +772,7 @@
         <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="G3" t="n">
         <v>2.86</v>
@@ -817,10 +817,10 @@
         <v>2.76</v>
       </c>
       <c r="K3" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="L3" t="n">
-        <v>1.61</v>
+        <v>1.7</v>
       </c>
       <c r="M3" t="n">
         <v>1.14</v>
@@ -850,7 +850,7 @@
         <v>1.65</v>
       </c>
       <c r="V3" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="W3" t="n">
         <v>1.53</v>
@@ -937,67 +937,67 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="G4" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="H4" t="n">
         <v>5.2</v>
       </c>
       <c r="I4" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="J4" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K4" t="n">
         <v>4.5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="M4" t="n">
         <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="O4" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="P4" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="R4" t="n">
         <v>1.37</v>
       </c>
       <c r="S4" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T4" t="n">
         <v>1.83</v>
       </c>
       <c r="U4" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="V4" t="n">
         <v>1.19</v>
       </c>
       <c r="W4" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="X4" t="n">
         <v>18.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z4" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
@@ -1009,7 +1009,7 @@
         <v>11</v>
       </c>
       <c r="AD4" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
@@ -1021,7 +1021,7 @@
         <v>11.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
@@ -1033,13 +1033,13 @@
         <v>21</v>
       </c>
       <c r="AL4" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1207,64 +1207,64 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="G6" t="n">
         <v>1.26</v>
       </c>
       <c r="H6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I6" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="J6" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="K6" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L6" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="M6" t="n">
         <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="O6" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="P6" t="n">
-        <v>2.94</v>
+        <v>2.84</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="R6" t="n">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="S6" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="T6" t="n">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="U6" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="V6" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="W6" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="X6" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Y6" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
         <v>170</v>
@@ -1276,19 +1276,19 @@
         <v>12.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AD6" t="n">
         <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="AF6" t="n">
         <v>9.6</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AH6" t="n">
         <v>38</v>
@@ -1309,7 +1309,7 @@
         <v>170</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.45</v>
+        <v>3.8</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1447,7 +1447,7 @@
         <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="8">
@@ -1486,7 +1486,7 @@
         <v>3.2</v>
       </c>
       <c r="I8" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="J8" t="n">
         <v>2.72</v>
@@ -1522,10 +1522,10 @@
         <v>2.4</v>
       </c>
       <c r="U8" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="V8" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="W8" t="n">
         <v>1.5</v>
@@ -1537,7 +1537,7 @@
         <v>7.8</v>
       </c>
       <c r="Z8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA8" t="n">
         <v>90</v>
@@ -1546,7 +1546,7 @@
         <v>7.4</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD8" t="n">
         <v>16</v>
@@ -1561,7 +1561,7 @@
         <v>18.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI8" t="n">
         <v>130</v>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="G9" t="n">
         <v>1.82</v>
@@ -1621,10 +1621,10 @@
         <v>5.9</v>
       </c>
       <c r="I9" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="J9" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="K9" t="n">
         <v>3.75</v>
@@ -1660,10 +1660,10 @@
         <v>1.72</v>
       </c>
       <c r="V9" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="W9" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="X9" t="n">
         <v>12</v>
@@ -1759,22 +1759,22 @@
         <v>6.4</v>
       </c>
       <c r="J10" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K10" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L10" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="M10" t="n">
         <v>1.09</v>
       </c>
       <c r="N10" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="O10" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P10" t="n">
         <v>1.7</v>
@@ -1789,7 +1789,7 @@
         <v>4</v>
       </c>
       <c r="T10" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U10" t="n">
         <v>1.82</v>
@@ -1813,10 +1813,10 @@
         <v>190</v>
       </c>
       <c r="AB10" t="n">
-        <v>7.6</v>
+        <v>970</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD10" t="n">
         <v>970</v>
@@ -1909,7 +1909,7 @@
         <v>2.44</v>
       </c>
       <c r="O11" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="P11" t="n">
         <v>1.49</v>
@@ -1936,10 +1936,10 @@
         <v>1.54</v>
       </c>
       <c r="X11" t="n">
-        <v>9.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="Y11" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z11" t="n">
         <v>22</v>
@@ -1948,7 +1948,7 @@
         <v>90</v>
       </c>
       <c r="AB11" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC11" t="n">
         <v>7.2</v>
@@ -1957,16 +1957,16 @@
         <v>17</v>
       </c>
       <c r="AE11" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AF11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG11" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH11" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI11" t="n">
         <v>100</v>
@@ -1975,7 +1975,7 @@
         <v>55</v>
       </c>
       <c r="AK11" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AL11" t="n">
         <v>75</v>
@@ -1984,7 +1984,7 @@
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AO11" t="n">
         <v>95</v>
@@ -2020,7 +2020,7 @@
         <v>2.22</v>
       </c>
       <c r="G12" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="H12" t="n">
         <v>3.6</v>
@@ -2032,7 +2032,7 @@
         <v>3.35</v>
       </c>
       <c r="K12" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L12" t="n">
         <v>1.45</v>
@@ -2044,7 +2044,7 @@
         <v>3.35</v>
       </c>
       <c r="O12" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P12" t="n">
         <v>1.8</v>
@@ -2056,7 +2056,7 @@
         <v>1.3</v>
       </c>
       <c r="S12" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="T12" t="n">
         <v>1.8</v>
@@ -2155,16 +2155,16 @@
         <v>2.16</v>
       </c>
       <c r="G13" t="n">
-        <v>2.48</v>
+        <v>2.64</v>
       </c>
       <c r="H13" t="n">
         <v>3.65</v>
       </c>
       <c r="I13" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="J13" t="n">
-        <v>3.05</v>
+        <v>2.74</v>
       </c>
       <c r="K13" t="n">
         <v>3.5</v>
@@ -2203,7 +2203,7 @@
         <v>1.29</v>
       </c>
       <c r="W13" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="X13" t="n">
         <v>12</v>
@@ -2257,7 +2257,7 @@
         <v>34</v>
       </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14">
@@ -2290,13 +2290,13 @@
         <v>1.67</v>
       </c>
       <c r="G14" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="H14" t="n">
         <v>6.2</v>
       </c>
       <c r="I14" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="J14" t="n">
         <v>3.9</v>
@@ -2317,10 +2317,10 @@
         <v>1.35</v>
       </c>
       <c r="P14" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="R14" t="n">
         <v>1.33</v>
@@ -2338,13 +2338,13 @@
         <v>1.17</v>
       </c>
       <c r="W14" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="X14" t="n">
         <v>13.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="Z14" t="n">
         <v>55</v>
@@ -2371,7 +2371,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH14" t="n">
-        <v>970</v>
+        <v>24</v>
       </c>
       <c r="AI14" t="n">
         <v>110</v>
@@ -2383,13 +2383,13 @@
         <v>18.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM14" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN14" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AO14" t="n">
         <v>140</v>
@@ -2488,13 +2488,13 @@
         <v>490</v>
       </c>
       <c r="AB15" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AC15" t="n">
         <v>11</v>
       </c>
       <c r="AD15" t="n">
-        <v>970</v>
+        <v>44</v>
       </c>
       <c r="AE15" t="n">
         <v>230</v>
@@ -2629,7 +2629,7 @@
         <v>10.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>970</v>
+        <v>46</v>
       </c>
       <c r="AE16" t="n">
         <v>310</v>
@@ -2641,7 +2641,7 @@
         <v>11.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>970</v>
+        <v>42</v>
       </c>
       <c r="AI16" t="n">
         <v>280</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-05.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-05.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="G2" t="n">
         <v>5.8</v>
@@ -676,10 +676,10 @@
         <v>1.77</v>
       </c>
       <c r="I2" t="n">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="J2" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="K2" t="n">
         <v>4.7</v>
@@ -697,7 +697,7 @@
         <v>1.27</v>
       </c>
       <c r="P2" t="n">
-        <v>1.92</v>
+        <v>2.06</v>
       </c>
       <c r="Q2" t="n">
         <v>1.71</v>
@@ -715,7 +715,7 @@
         <v>2.12</v>
       </c>
       <c r="V2" t="n">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="W2" t="n">
         <v>1.2</v>
@@ -736,43 +736,43 @@
         <v>1000</v>
       </c>
       <c r="AC2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO2" t="n">
         <v>970</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -802,34 +802,34 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.62</v>
+        <v>2.96</v>
       </c>
       <c r="G3" t="n">
-        <v>2.86</v>
+        <v>3.15</v>
       </c>
       <c r="H3" t="n">
-        <v>3.35</v>
+        <v>3.05</v>
       </c>
       <c r="I3" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="J3" t="n">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
       <c r="K3" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="L3" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="M3" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N3" t="n">
         <v>2.26</v>
       </c>
       <c r="O3" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="P3" t="n">
         <v>1.41</v>
@@ -844,49 +844,49 @@
         <v>6.8</v>
       </c>
       <c r="T3" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="U3" t="n">
         <v>1.65</v>
       </c>
       <c r="V3" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="W3" t="n">
-        <v>1.53</v>
+        <v>1.46</v>
       </c>
       <c r="X3" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC3" t="n">
         <v>7</v>
       </c>
-      <c r="Y3" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>25</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>8</v>
-      </c>
       <c r="AD3" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AH3" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
         <v>120</v>
@@ -937,13 +937,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="G4" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="H4" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
         <v>6.6</v>
@@ -952,7 +952,7 @@
         <v>3.75</v>
       </c>
       <c r="K4" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L4" t="n">
         <v>1.37</v>
@@ -961,16 +961,16 @@
         <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P4" t="n">
         <v>1.96</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="R4" t="n">
         <v>1.37</v>
@@ -979,37 +979,37 @@
         <v>3.15</v>
       </c>
       <c r="T4" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="U4" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V4" t="n">
         <v>1.19</v>
       </c>
       <c r="W4" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="X4" t="n">
         <v>18.5</v>
       </c>
       <c r="Y4" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD4" t="n">
         <v>23</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>60</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>25</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
@@ -1018,28 +1018,28 @@
         <v>12.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AJ4" t="n">
         <v>21</v>
       </c>
       <c r="AK4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1075,7 +1075,7 @@
         <v>1.67</v>
       </c>
       <c r="G5" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="H5" t="n">
         <v>6</v>
@@ -1084,10 +1084,10 @@
         <v>6.8</v>
       </c>
       <c r="J5" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="K5" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1096,37 +1096,37 @@
         <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O5" t="n">
         <v>1.36</v>
       </c>
       <c r="P5" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="R5" t="n">
         <v>1.3</v>
       </c>
       <c r="S5" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="T5" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="U5" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="V5" t="n">
         <v>1.17</v>
       </c>
       <c r="W5" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Y5" t="n">
         <v>1000</v>
@@ -1135,10 +1135,10 @@
         <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AC5" t="n">
         <v>1000</v>
@@ -1171,7 +1171,7 @@
         <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AN5" t="n">
         <v>1000</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="G6" t="n">
         <v>1.26</v>
       </c>
       <c r="H6" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="I6" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="J6" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="K6" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="L6" t="n">
         <v>1.21</v>
@@ -1231,40 +1231,40 @@
         <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="O6" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="P6" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="R6" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="S6" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="T6" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="U6" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="V6" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="W6" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="X6" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="Z6" t="n">
         <v>170</v>
@@ -1276,40 +1276,40 @@
         <v>12.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AD6" t="n">
         <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH6" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AI6" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AJ6" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AK6" t="n">
         <v>16</v>
       </c>
       <c r="AL6" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM6" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G7" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H7" t="n">
         <v>1.17</v>
@@ -1354,19 +1354,19 @@
         <v>1.21</v>
       </c>
       <c r="J7" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="K7" t="n">
         <v>11</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="M7" t="n">
         <v>1.02</v>
       </c>
       <c r="N7" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="O7" t="n">
         <v>1.15</v>
@@ -1381,7 +1381,7 @@
         <v>1.75</v>
       </c>
       <c r="S7" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="T7" t="n">
         <v>2.22</v>
@@ -1390,7 +1390,7 @@
         <v>1.78</v>
       </c>
       <c r="V7" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="W7" t="n">
         <v>1.04</v>
@@ -1402,7 +1402,7 @@
         <v>13</v>
       </c>
       <c r="Z7" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AA7" t="n">
         <v>9.800000000000001</v>
@@ -1417,10 +1417,10 @@
         <v>14.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AG7" t="n">
         <v>970</v>
@@ -1429,7 +1429,7 @@
         <v>970</v>
       </c>
       <c r="AI7" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AJ7" t="n">
         <v>1000</v>
@@ -1438,16 +1438,16 @@
         <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
       <c r="AN7" t="n">
         <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8">
@@ -1477,100 +1477,100 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="H8" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I8" t="n">
         <v>3.4</v>
       </c>
       <c r="J8" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="K8" t="n">
-        <v>2.92</v>
+        <v>2.98</v>
       </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="M8" t="n">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="N8" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="O8" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="P8" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="R8" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="S8" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="T8" t="n">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="U8" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="V8" t="n">
         <v>1.41</v>
       </c>
       <c r="W8" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="X8" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="Y8" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="Z8" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AA8" t="n">
         <v>90</v>
       </c>
       <c r="AB8" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AC8" t="n">
         <v>7</v>
       </c>
       <c r="AD8" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF8" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AG8" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AH8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI8" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AJ8" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AK8" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AL8" t="n">
         <v>120</v>
@@ -1612,19 +1612,19 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="G9" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="H9" t="n">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="I9" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="J9" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K9" t="n">
         <v>3.75</v>
@@ -1633,7 +1633,7 @@
         <v>1.44</v>
       </c>
       <c r="M9" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="N9" t="n">
         <v>2.82</v>
@@ -1642,34 +1642,34 @@
         <v>1.48</v>
       </c>
       <c r="P9" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.42</v>
+        <v>2.18</v>
       </c>
       <c r="R9" t="n">
         <v>1.22</v>
       </c>
       <c r="S9" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="T9" t="n">
         <v>2.2</v>
       </c>
       <c r="U9" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="V9" t="n">
         <v>1.18</v>
       </c>
       <c r="W9" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="X9" t="n">
         <v>12</v>
       </c>
       <c r="Y9" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="Z9" t="n">
         <v>1000</v>
@@ -1678,10 +1678,10 @@
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AD9" t="n">
         <v>1000</v>
@@ -1690,13 +1690,13 @@
         <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AG9" t="n">
         <v>13</v>
       </c>
       <c r="AH9" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AI9" t="n">
         <v>1000</v>
@@ -1747,109 +1747,109 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="G10" t="n">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="H10" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="I10" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="J10" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S10" t="n">
         <v>3.4</v>
       </c>
-      <c r="K10" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N10" t="n">
-        <v>3</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S10" t="n">
-        <v>4</v>
-      </c>
       <c r="T10" t="n">
-        <v>2.04</v>
+        <v>1.87</v>
       </c>
       <c r="U10" t="n">
-        <v>1.82</v>
+        <v>1.94</v>
       </c>
       <c r="V10" t="n">
         <v>1.19</v>
       </c>
       <c r="W10" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="X10" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Z10" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AA10" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="AB10" t="n">
-        <v>970</v>
+        <v>9.4</v>
       </c>
       <c r="AC10" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>970</v>
+        <v>25</v>
       </c>
       <c r="AE10" t="n">
         <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>970</v>
+        <v>12.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>970</v>
+        <v>24</v>
       </c>
       <c r="AI10" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AK10" t="n">
         <v>22</v>
       </c>
       <c r="AL10" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AM10" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1891,7 +1891,7 @@
         <v>3.15</v>
       </c>
       <c r="I11" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="J11" t="n">
         <v>2.82</v>
@@ -1900,19 +1900,19 @@
         <v>3.25</v>
       </c>
       <c r="L11" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N11" t="n">
         <v>2.44</v>
       </c>
       <c r="O11" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="P11" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="Q11" t="n">
         <v>2.66</v>
@@ -1921,7 +1921,7 @@
         <v>1.17</v>
       </c>
       <c r="S11" t="n">
-        <v>5.6</v>
+        <v>4.9</v>
       </c>
       <c r="T11" t="n">
         <v>2.1</v>
@@ -1936,37 +1936,37 @@
         <v>1.54</v>
       </c>
       <c r="X11" t="n">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
       <c r="Y11" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AA11" t="n">
         <v>90</v>
       </c>
       <c r="AB11" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.2</v>
+        <v>8.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE11" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AF11" t="n">
         <v>19</v>
       </c>
       <c r="AG11" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AH11" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AI11" t="n">
         <v>100</v>
@@ -1975,16 +1975,16 @@
         <v>55</v>
       </c>
       <c r="AK11" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AL11" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AM11" t="n">
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AO11" t="n">
         <v>95</v>
@@ -2017,49 +2017,49 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="G12" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="H12" t="n">
         <v>3.6</v>
       </c>
       <c r="I12" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="J12" t="n">
         <v>3.35</v>
       </c>
       <c r="K12" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="L12" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M12" t="n">
         <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O12" t="n">
         <v>1.37</v>
       </c>
       <c r="P12" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="Q12" t="n">
         <v>2.1</v>
       </c>
       <c r="R12" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="S12" t="n">
         <v>3.85</v>
       </c>
       <c r="T12" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="U12" t="n">
         <v>2.06</v>
@@ -2068,10 +2068,10 @@
         <v>1.35</v>
       </c>
       <c r="W12" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="X12" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y12" t="n">
         <v>13.5</v>
@@ -2080,19 +2080,19 @@
         <v>27</v>
       </c>
       <c r="AA12" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AB12" t="n">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD12" t="n">
-        <v>970</v>
+        <v>16.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="AF12" t="n">
         <v>15</v>
@@ -2101,28 +2101,28 @@
         <v>12</v>
       </c>
       <c r="AH12" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
       <c r="AI12" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AJ12" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AK12" t="n">
         <v>27</v>
       </c>
       <c r="AL12" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AM12" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AN12" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="G13" t="n">
         <v>2.64</v>
@@ -2170,7 +2170,7 @@
         <v>3.5</v>
       </c>
       <c r="L13" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="M13" t="n">
         <v>1.1</v>
@@ -2191,7 +2191,7 @@
         <v>1.22</v>
       </c>
       <c r="S13" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="T13" t="n">
         <v>1.97</v>
@@ -2203,7 +2203,7 @@
         <v>1.29</v>
       </c>
       <c r="W13" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="X13" t="n">
         <v>12</v>
@@ -2257,7 +2257,7 @@
         <v>34</v>
       </c>
       <c r="AO13" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
@@ -2290,7 +2290,7 @@
         <v>1.67</v>
       </c>
       <c r="G14" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="H14" t="n">
         <v>6.2</v>
@@ -2314,7 +2314,7 @@
         <v>3.55</v>
       </c>
       <c r="O14" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P14" t="n">
         <v>1.88</v>
@@ -2332,19 +2332,19 @@
         <v>2</v>
       </c>
       <c r="U14" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="V14" t="n">
         <v>1.17</v>
       </c>
       <c r="W14" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="X14" t="n">
         <v>13.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="Z14" t="n">
         <v>55</v>
@@ -2353,16 +2353,16 @@
         <v>190</v>
       </c>
       <c r="AB14" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AD14" t="n">
         <v>25</v>
       </c>
       <c r="AE14" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AF14" t="n">
         <v>9.4</v>
@@ -2371,10 +2371,10 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH14" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AI14" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AJ14" t="n">
         <v>16</v>
@@ -2383,10 +2383,10 @@
         <v>18.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AM14" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="AN14" t="n">
         <v>11.5</v>
@@ -2425,13 +2425,13 @@
         <v>1.45</v>
       </c>
       <c r="G15" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="H15" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="I15" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="J15" t="n">
         <v>4.3</v>
@@ -2440,31 +2440,31 @@
         <v>4.9</v>
       </c>
       <c r="L15" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="M15" t="n">
         <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="O15" t="n">
         <v>1.36</v>
       </c>
       <c r="P15" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R15" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="S15" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="T15" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="U15" t="n">
         <v>1.68</v>
@@ -2473,7 +2473,7 @@
         <v>1.11</v>
       </c>
       <c r="W15" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="X15" t="n">
         <v>970</v>
@@ -2488,28 +2488,28 @@
         <v>490</v>
       </c>
       <c r="AB15" t="n">
-        <v>7.8</v>
+        <v>6.8</v>
       </c>
       <c r="AC15" t="n">
         <v>11</v>
       </c>
       <c r="AD15" t="n">
-        <v>44</v>
+        <v>970</v>
       </c>
       <c r="AE15" t="n">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="AF15" t="n">
         <v>7.8</v>
       </c>
       <c r="AG15" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="AH15" t="n">
-        <v>970</v>
+        <v>40</v>
       </c>
       <c r="AI15" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AJ15" t="n">
         <v>13</v>
@@ -2521,13 +2521,13 @@
         <v>50</v>
       </c>
       <c r="AM15" t="n">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="AN15" t="n">
         <v>9.4</v>
       </c>
       <c r="AO15" t="n">
-        <v>410</v>
+        <v>430</v>
       </c>
     </row>
     <row r="16">
@@ -2557,52 +2557,52 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="G16" t="n">
         <v>1.53</v>
       </c>
       <c r="H16" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I16" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="J16" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K16" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L16" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M16" t="n">
         <v>1.1</v>
       </c>
       <c r="N16" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="O16" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="P16" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.46</v>
+        <v>2.3</v>
       </c>
       <c r="R16" t="n">
         <v>1.22</v>
       </c>
       <c r="S16" t="n">
-        <v>4.9</v>
+        <v>4.4</v>
       </c>
       <c r="T16" t="n">
-        <v>2.52</v>
+        <v>2.42</v>
       </c>
       <c r="U16" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="V16" t="n">
         <v>1.09</v>
@@ -2611,55 +2611,55 @@
         <v>2.88</v>
       </c>
       <c r="X16" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Z16" t="n">
         <v>1000</v>
       </c>
       <c r="AA16" t="n">
-        <v>1000</v>
+        <v>620</v>
       </c>
       <c r="AB16" t="n">
-        <v>5.7</v>
+        <v>7</v>
       </c>
       <c r="AC16" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AE16" t="n">
         <v>310</v>
       </c>
       <c r="AF16" t="n">
-        <v>7.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG16" t="n">
         <v>11.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AI16" t="n">
         <v>280</v>
       </c>
       <c r="AJ16" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AK16" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AL16" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AM16" t="n">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="AN16" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AO16" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-05.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-05.xlsx
@@ -667,25 +667,25 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="G2" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="H2" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="I2" t="n">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="J2" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K2" t="n">
         <v>4.7</v>
       </c>
       <c r="L2" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M2" t="n">
         <v>1.06</v>
@@ -697,7 +697,7 @@
         <v>1.27</v>
       </c>
       <c r="P2" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q2" t="n">
         <v>1.71</v>
@@ -715,10 +715,10 @@
         <v>2.12</v>
       </c>
       <c r="V2" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="W2" t="n">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="G3" t="n">
         <v>3.15</v>
@@ -811,16 +811,16 @@
         <v>3.05</v>
       </c>
       <c r="I3" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J3" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="K3" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="L3" t="n">
-        <v>1.69</v>
+        <v>1.61</v>
       </c>
       <c r="M3" t="n">
         <v>1.17</v>
@@ -844,10 +844,10 @@
         <v>6.8</v>
       </c>
       <c r="T3" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="U3" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="V3" t="n">
         <v>1.44</v>
@@ -859,7 +859,7 @@
         <v>6.8</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="Z3" t="n">
         <v>1000</v>
@@ -874,7 +874,7 @@
         <v>7</v>
       </c>
       <c r="AD3" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
@@ -907,7 +907,7 @@
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
@@ -937,67 +937,67 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="G4" t="n">
         <v>1.79</v>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="I4" t="n">
-        <v>6.6</v>
+        <v>5.8</v>
       </c>
       <c r="J4" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K4" t="n">
         <v>4.4</v>
       </c>
       <c r="L4" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="M4" t="n">
         <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="O4" t="n">
         <v>1.27</v>
       </c>
       <c r="P4" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.85</v>
+        <v>1.77</v>
       </c>
       <c r="R4" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S4" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="T4" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="U4" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V4" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="W4" t="n">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="X4" t="n">
         <v>18.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
@@ -1006,10 +1006,10 @@
         <v>10.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
@@ -1021,10 +1021,10 @@
         <v>12</v>
       </c>
       <c r="AH4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI4" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
         <v>21</v>
@@ -1039,7 +1039,7 @@
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1075,7 +1075,7 @@
         <v>1.67</v>
       </c>
       <c r="G5" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="H5" t="n">
         <v>6</v>
@@ -1087,10 +1087,10 @@
         <v>3.6</v>
       </c>
       <c r="K5" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M5" t="n">
         <v>1.07</v>
@@ -1105,7 +1105,7 @@
         <v>1.79</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R5" t="n">
         <v>1.3</v>
@@ -1123,7 +1123,7 @@
         <v>1.17</v>
       </c>
       <c r="W5" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="X5" t="n">
         <v>15.5</v>
@@ -1216,7 +1216,7 @@
         <v>13.5</v>
       </c>
       <c r="I6" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="J6" t="n">
         <v>7</v>
@@ -1225,7 +1225,7 @@
         <v>8.4</v>
       </c>
       <c r="L6" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="M6" t="n">
         <v>1.02</v>
@@ -1246,7 +1246,7 @@
         <v>1.74</v>
       </c>
       <c r="S6" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="T6" t="n">
         <v>1.98</v>
@@ -1255,16 +1255,16 @@
         <v>1.83</v>
       </c>
       <c r="V6" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="W6" t="n">
         <v>4.7</v>
       </c>
       <c r="X6" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
         <v>170</v>
@@ -1288,10 +1288,10 @@
         <v>10.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
         <v>180</v>
@@ -1303,13 +1303,13 @@
         <v>16</v>
       </c>
       <c r="AL6" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
         <v>180</v>
       </c>
       <c r="AN6" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1354,7 +1354,7 @@
         <v>1.21</v>
       </c>
       <c r="J7" t="n">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
       <c r="K7" t="n">
         <v>11</v>
@@ -1411,7 +1411,7 @@
         <v>970</v>
       </c>
       <c r="AC7" t="n">
-        <v>970</v>
+        <v>24</v>
       </c>
       <c r="AD7" t="n">
         <v>14.5</v>
@@ -1447,7 +1447,7 @@
         <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="8">
@@ -1480,7 +1480,7 @@
         <v>2.8</v>
       </c>
       <c r="G8" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
         <v>3.25</v>
@@ -1492,13 +1492,13 @@
         <v>2.76</v>
       </c>
       <c r="K8" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="L8" t="n">
-        <v>1.56</v>
+        <v>1.69</v>
       </c>
       <c r="M8" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="N8" t="n">
         <v>2.26</v>
@@ -1528,7 +1528,7 @@
         <v>1.41</v>
       </c>
       <c r="W8" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="X8" t="n">
         <v>7</v>
@@ -1537,7 +1537,7 @@
         <v>8</v>
       </c>
       <c r="Z8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA8" t="n">
         <v>90</v>
@@ -1570,7 +1570,7 @@
         <v>65</v>
       </c>
       <c r="AK8" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AL8" t="n">
         <v>120</v>
@@ -1621,7 +1621,7 @@
         <v>5.5</v>
       </c>
       <c r="I9" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="J9" t="n">
         <v>3.45</v>
@@ -1651,7 +1651,7 @@
         <v>1.22</v>
       </c>
       <c r="S9" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T9" t="n">
         <v>2.2</v>
@@ -1696,13 +1696,13 @@
         <v>13</v>
       </c>
       <c r="AH9" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AI9" t="n">
         <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AK9" t="n">
         <v>1000</v>
@@ -1714,7 +1714,7 @@
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1750,40 +1750,40 @@
         <v>1.7</v>
       </c>
       <c r="G10" t="n">
-        <v>1.84</v>
+        <v>1.79</v>
       </c>
       <c r="H10" t="n">
         <v>5.1</v>
       </c>
       <c r="I10" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="J10" t="n">
         <v>3.65</v>
       </c>
       <c r="K10" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L10" t="n">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="M10" t="n">
         <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="O10" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="P10" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="Q10" t="n">
         <v>1.96</v>
       </c>
       <c r="R10" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S10" t="n">
         <v>3.4</v>
@@ -1792,13 +1792,13 @@
         <v>1.87</v>
       </c>
       <c r="U10" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="V10" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="W10" t="n">
-        <v>2.18</v>
+        <v>2.26</v>
       </c>
       <c r="X10" t="n">
         <v>16.5</v>
@@ -1807,10 +1807,10 @@
         <v>21</v>
       </c>
       <c r="Z10" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AA10" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AB10" t="n">
         <v>9.4</v>
@@ -1825,16 +1825,16 @@
         <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AG10" t="n">
         <v>10.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>24</v>
+        <v>970</v>
       </c>
       <c r="AI10" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AJ10" t="n">
         <v>21</v>
@@ -1846,10 +1846,10 @@
         <v>44</v>
       </c>
       <c r="AM10" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN10" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="G11" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="H11" t="n">
         <v>3.15</v>
       </c>
       <c r="I11" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J11" t="n">
         <v>2.82</v>
@@ -1903,7 +1903,7 @@
         <v>1.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N11" t="n">
         <v>2.44</v>
@@ -1921,7 +1921,7 @@
         <v>1.17</v>
       </c>
       <c r="S11" t="n">
-        <v>4.9</v>
+        <v>5.5</v>
       </c>
       <c r="T11" t="n">
         <v>2.1</v>
@@ -1936,7 +1936,7 @@
         <v>1.54</v>
       </c>
       <c r="X11" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y11" t="n">
         <v>11.5</v>
@@ -1957,7 +1957,7 @@
         <v>19</v>
       </c>
       <c r="AE11" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AF11" t="n">
         <v>19</v>
@@ -1978,7 +1978,7 @@
         <v>50</v>
       </c>
       <c r="AL11" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AM11" t="n">
         <v>1000</v>
@@ -2017,10 +2017,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="G12" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="H12" t="n">
         <v>3.6</v>
@@ -2032,7 +2032,7 @@
         <v>3.35</v>
       </c>
       <c r="K12" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L12" t="n">
         <v>1.46</v>
@@ -2047,10 +2047,10 @@
         <v>1.37</v>
       </c>
       <c r="P12" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R12" t="n">
         <v>1.32</v>
@@ -2062,13 +2062,13 @@
         <v>1.85</v>
       </c>
       <c r="U12" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V12" t="n">
         <v>1.35</v>
       </c>
       <c r="W12" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="X12" t="n">
         <v>15.5</v>
@@ -2101,7 +2101,7 @@
         <v>12</v>
       </c>
       <c r="AH12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI12" t="n">
         <v>70</v>
@@ -2119,10 +2119,10 @@
         <v>140</v>
       </c>
       <c r="AN12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO12" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
@@ -2155,7 +2155,7 @@
         <v>2.14</v>
       </c>
       <c r="G13" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="H13" t="n">
         <v>3.65</v>
@@ -2164,13 +2164,13 @@
         <v>4.5</v>
       </c>
       <c r="J13" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="K13" t="n">
         <v>3.5</v>
       </c>
       <c r="L13" t="n">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="M13" t="n">
         <v>1.1</v>
@@ -2200,10 +2200,10 @@
         <v>1.84</v>
       </c>
       <c r="V13" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="W13" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="X13" t="n">
         <v>12</v>
@@ -2311,34 +2311,34 @@
         <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O14" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P14" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="Q14" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R14" t="n">
         <v>1.33</v>
       </c>
       <c r="S14" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="T14" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U14" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="V14" t="n">
         <v>1.17</v>
       </c>
       <c r="W14" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="X14" t="n">
         <v>13.5</v>
@@ -2356,7 +2356,7 @@
         <v>7.8</v>
       </c>
       <c r="AC14" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD14" t="n">
         <v>25</v>
@@ -2386,7 +2386,7 @@
         <v>42</v>
       </c>
       <c r="AM14" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="AN14" t="n">
         <v>11.5</v>
@@ -2425,19 +2425,19 @@
         <v>1.45</v>
       </c>
       <c r="G15" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="H15" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="I15" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="J15" t="n">
         <v>4.3</v>
       </c>
       <c r="K15" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="L15" t="n">
         <v>1.43</v>
@@ -2446,10 +2446,10 @@
         <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O15" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P15" t="n">
         <v>1.81</v>
@@ -2473,7 +2473,7 @@
         <v>1.11</v>
       </c>
       <c r="W15" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="X15" t="n">
         <v>970</v>
@@ -2509,7 +2509,7 @@
         <v>40</v>
       </c>
       <c r="AI15" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AJ15" t="n">
         <v>13</v>
@@ -2527,7 +2527,7 @@
         <v>9.4</v>
       </c>
       <c r="AO15" t="n">
-        <v>430</v>
+        <v>420</v>
       </c>
     </row>
     <row r="16">
@@ -2572,37 +2572,37 @@
         <v>3.9</v>
       </c>
       <c r="K16" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="L16" t="n">
-        <v>1.41</v>
+        <v>1.47</v>
       </c>
       <c r="M16" t="n">
         <v>1.1</v>
       </c>
       <c r="N16" t="n">
-        <v>2.88</v>
+        <v>2.96</v>
       </c>
       <c r="O16" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="P16" t="n">
-        <v>1.63</v>
+        <v>1.69</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="R16" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S16" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="T16" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="U16" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="V16" t="n">
         <v>1.09</v>
@@ -2611,40 +2611,40 @@
         <v>2.88</v>
       </c>
       <c r="X16" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z16" t="n">
         <v>1000</v>
       </c>
       <c r="AA16" t="n">
-        <v>620</v>
+        <v>590</v>
       </c>
       <c r="AB16" t="n">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="AC16" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AD16" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AE16" t="n">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="AF16" t="n">
-        <v>8.800000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="AG16" t="n">
         <v>11.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>46</v>
+        <v>970</v>
       </c>
       <c r="AI16" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AJ16" t="n">
         <v>16</v>
@@ -2653,10 +2653,10 @@
         <v>25</v>
       </c>
       <c r="AL16" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AM16" t="n">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="AN16" t="n">
         <v>14.5</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-05.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-05.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="G2" t="n">
         <v>5.7</v>
@@ -676,7 +676,7 @@
         <v>1.78</v>
       </c>
       <c r="I2" t="n">
-        <v>2.02</v>
+        <v>1.94</v>
       </c>
       <c r="J2" t="n">
         <v>3.5</v>
@@ -715,10 +715,10 @@
         <v>2.12</v>
       </c>
       <c r="V2" t="n">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="W2" t="n">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -811,16 +811,16 @@
         <v>3.05</v>
       </c>
       <c r="I3" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J3" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="K3" t="n">
-        <v>2.92</v>
+        <v>2.84</v>
       </c>
       <c r="L3" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="M3" t="n">
         <v>1.17</v>
@@ -856,22 +856,22 @@
         <v>1.46</v>
       </c>
       <c r="X3" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AC3" t="n">
         <v>6.8</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>7</v>
       </c>
       <c r="AD3" t="n">
         <v>1000</v>
@@ -901,13 +901,13 @@
         <v>110</v>
       </c>
       <c r="AM3" t="n">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="AN3" t="n">
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -937,19 +937,19 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="G4" t="n">
         <v>1.79</v>
       </c>
       <c r="H4" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="I4" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="J4" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="K4" t="n">
         <v>4.4</v>
@@ -964,61 +964,61 @@
         <v>3.8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="P4" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.77</v>
+        <v>1.84</v>
       </c>
       <c r="R4" t="n">
         <v>1.38</v>
       </c>
       <c r="S4" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="T4" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="U4" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="V4" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W4" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="X4" t="n">
         <v>18.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="AC4" t="n">
         <v>9.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AH4" t="n">
         <v>21</v>
@@ -1027,10 +1027,10 @@
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK4" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AL4" t="n">
         <v>42</v>
@@ -1072,10 +1072,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="G5" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="H5" t="n">
         <v>6</v>
@@ -1087,7 +1087,7 @@
         <v>3.6</v>
       </c>
       <c r="K5" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L5" t="n">
         <v>1.37</v>
@@ -1102,7 +1102,7 @@
         <v>1.36</v>
       </c>
       <c r="P5" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="Q5" t="n">
         <v>2.06</v>
@@ -1123,7 +1123,7 @@
         <v>1.17</v>
       </c>
       <c r="W5" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="X5" t="n">
         <v>15.5</v>
@@ -1210,49 +1210,49 @@
         <v>1.22</v>
       </c>
       <c r="G6" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="H6" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="I6" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="J6" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="K6" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L6" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="M6" t="n">
         <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>6.4</v>
+        <v>5.7</v>
       </c>
       <c r="O6" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="P6" t="n">
-        <v>2.86</v>
+        <v>2.6</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="R6" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U6" t="n">
         <v>1.74</v>
-      </c>
-      <c r="S6" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.83</v>
       </c>
       <c r="V6" t="n">
         <v>1.06</v>
@@ -1261,7 +1261,7 @@
         <v>4.7</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="Y6" t="n">
         <v>1000</v>
@@ -1273,31 +1273,31 @@
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AC6" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AD6" t="n">
         <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="AF6" t="n">
-        <v>10.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG6" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AH6" t="n">
         <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="AJ6" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK6" t="n">
         <v>16</v>
@@ -1306,7 +1306,7 @@
         <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="AN6" t="n">
         <v>4.1</v>
@@ -1354,7 +1354,7 @@
         <v>1.21</v>
       </c>
       <c r="J7" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="K7" t="n">
         <v>11</v>
@@ -1411,7 +1411,7 @@
         <v>970</v>
       </c>
       <c r="AC7" t="n">
-        <v>24</v>
+        <v>970</v>
       </c>
       <c r="AD7" t="n">
         <v>14.5</v>
@@ -1447,7 +1447,7 @@
         <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8">
@@ -1495,7 +1495,7 @@
         <v>2.96</v>
       </c>
       <c r="L8" t="n">
-        <v>1.69</v>
+        <v>1.56</v>
       </c>
       <c r="M8" t="n">
         <v>1.17</v>
@@ -1537,7 +1537,7 @@
         <v>8</v>
       </c>
       <c r="Z8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AA8" t="n">
         <v>90</v>
@@ -1549,7 +1549,7 @@
         <v>7</v>
       </c>
       <c r="AD8" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AE8" t="n">
         <v>65</v>
@@ -1639,7 +1639,7 @@
         <v>2.82</v>
       </c>
       <c r="O9" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="P9" t="n">
         <v>1.61</v>
@@ -1651,16 +1651,16 @@
         <v>1.22</v>
       </c>
       <c r="S9" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="T9" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="U9" t="n">
         <v>1.71</v>
       </c>
       <c r="V9" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="W9" t="n">
         <v>2.18</v>
@@ -1669,7 +1669,7 @@
         <v>12</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Z9" t="n">
         <v>1000</v>
@@ -1702,7 +1702,7 @@
         <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
         <v>1000</v>
@@ -1714,7 +1714,7 @@
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="G10" t="n">
-        <v>1.79</v>
+        <v>1.84</v>
       </c>
       <c r="H10" t="n">
         <v>5.1</v>
@@ -1762,7 +1762,7 @@
         <v>3.65</v>
       </c>
       <c r="K10" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L10" t="n">
         <v>1.41</v>
@@ -1798,7 +1798,7 @@
         <v>1.2</v>
       </c>
       <c r="W10" t="n">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="X10" t="n">
         <v>16.5</v>
@@ -1807,7 +1807,7 @@
         <v>21</v>
       </c>
       <c r="Z10" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AA10" t="n">
         <v>160</v>
@@ -1849,7 +1849,7 @@
         <v>140</v>
       </c>
       <c r="AN10" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1900,7 +1900,7 @@
         <v>3.25</v>
       </c>
       <c r="L11" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="M11" t="n">
         <v>1.13</v>
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="G12" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="H12" t="n">
         <v>3.6</v>
       </c>
       <c r="I12" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="J12" t="n">
         <v>3.35</v>
@@ -2041,16 +2041,16 @@
         <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O12" t="n">
         <v>1.37</v>
       </c>
       <c r="P12" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="R12" t="n">
         <v>1.32</v>
@@ -2059,16 +2059,16 @@
         <v>3.85</v>
       </c>
       <c r="T12" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="U12" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V12" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="W12" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="X12" t="n">
         <v>15.5</v>
@@ -2080,31 +2080,31 @@
         <v>27</v>
       </c>
       <c r="AA12" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AB12" t="n">
         <v>10.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AE12" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AF12" t="n">
         <v>15</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AI12" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AJ12" t="n">
         <v>38</v>
@@ -2116,7 +2116,7 @@
         <v>55</v>
       </c>
       <c r="AM12" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN12" t="n">
         <v>26</v>
@@ -2155,16 +2155,16 @@
         <v>2.14</v>
       </c>
       <c r="G13" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="H13" t="n">
         <v>3.65</v>
       </c>
       <c r="I13" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J13" t="n">
-        <v>2.72</v>
+        <v>3.05</v>
       </c>
       <c r="K13" t="n">
         <v>3.5</v>
@@ -2200,10 +2200,10 @@
         <v>1.84</v>
       </c>
       <c r="V13" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W13" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="X13" t="n">
         <v>12</v>
@@ -2290,13 +2290,13 @@
         <v>1.67</v>
       </c>
       <c r="G14" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="H14" t="n">
         <v>6.2</v>
       </c>
       <c r="I14" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="J14" t="n">
         <v>3.9</v>
@@ -2311,7 +2311,7 @@
         <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="O14" t="n">
         <v>1.35</v>
@@ -2320,16 +2320,16 @@
         <v>1.89</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R14" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S14" t="n">
         <v>3.7</v>
       </c>
       <c r="T14" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U14" t="n">
         <v>1.9</v>
@@ -2359,7 +2359,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD14" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE14" t="n">
         <v>100</v>
@@ -2422,19 +2422,19 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="G15" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="H15" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="I15" t="n">
         <v>10</v>
       </c>
       <c r="J15" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K15" t="n">
         <v>4.7</v>
@@ -2446,13 +2446,13 @@
         <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O15" t="n">
         <v>1.37</v>
       </c>
       <c r="P15" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="Q15" t="n">
         <v>2.08</v>
@@ -2461,19 +2461,19 @@
         <v>1.3</v>
       </c>
       <c r="S15" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="T15" t="n">
         <v>2.28</v>
       </c>
       <c r="U15" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="V15" t="n">
         <v>1.11</v>
       </c>
       <c r="W15" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="X15" t="n">
         <v>970</v>
@@ -2497,7 +2497,7 @@
         <v>970</v>
       </c>
       <c r="AE15" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AF15" t="n">
         <v>7.8</v>
@@ -2506,7 +2506,7 @@
         <v>11</v>
       </c>
       <c r="AH15" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AI15" t="n">
         <v>200</v>
@@ -2521,13 +2521,13 @@
         <v>50</v>
       </c>
       <c r="AM15" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AN15" t="n">
         <v>9.4</v>
       </c>
       <c r="AO15" t="n">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="16">
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="G16" t="n">
         <v>1.53</v>
@@ -2566,16 +2566,16 @@
         <v>9.199999999999999</v>
       </c>
       <c r="I16" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="J16" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="K16" t="n">
         <v>4.4</v>
       </c>
       <c r="L16" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="M16" t="n">
         <v>1.1</v>
@@ -2605,7 +2605,7 @@
         <v>1.58</v>
       </c>
       <c r="V16" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="W16" t="n">
         <v>2.88</v>
@@ -2614,7 +2614,7 @@
         <v>12.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Z16" t="n">
         <v>1000</v>
@@ -2629,7 +2629,7 @@
         <v>12</v>
       </c>
       <c r="AD16" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AE16" t="n">
         <v>290</v>
@@ -2647,10 +2647,10 @@
         <v>270</v>
       </c>
       <c r="AJ16" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AK16" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AL16" t="n">
         <v>65</v>
@@ -2659,7 +2659,7 @@
         <v>380</v>
       </c>
       <c r="AN16" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AO16" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-05.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-05.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="G2" t="n">
         <v>5.7</v>
@@ -808,13 +808,13 @@
         <v>3.15</v>
       </c>
       <c r="H3" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I3" t="n">
         <v>3.3</v>
       </c>
       <c r="J3" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="K3" t="n">
         <v>2.84</v>
@@ -850,7 +850,7 @@
         <v>1.66</v>
       </c>
       <c r="V3" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="W3" t="n">
         <v>1.46</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="G4" t="n">
         <v>1.79</v>
       </c>
       <c r="H4" t="n">
-        <v>5.1</v>
+        <v>4.7</v>
       </c>
       <c r="I4" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="J4" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="K4" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L4" t="n">
         <v>1.33</v>
@@ -967,22 +967,22 @@
         <v>1.29</v>
       </c>
       <c r="P4" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="R4" t="n">
         <v>1.38</v>
       </c>
       <c r="S4" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="T4" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="U4" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="V4" t="n">
         <v>1.2</v>
@@ -997,13 +997,13 @@
         <v>19</v>
       </c>
       <c r="Z4" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="AC4" t="n">
         <v>9.4</v>
@@ -1033,7 +1033,7 @@
         <v>19.5</v>
       </c>
       <c r="AL4" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
@@ -1075,7 +1075,7 @@
         <v>1.68</v>
       </c>
       <c r="G5" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="H5" t="n">
         <v>6</v>
@@ -1123,10 +1123,10 @@
         <v>1.17</v>
       </c>
       <c r="W5" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="X5" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="Y5" t="n">
         <v>1000</v>
@@ -1225,7 +1225,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="L6" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="M6" t="n">
         <v>1.02</v>
@@ -1237,7 +1237,7 @@
         <v>1.16</v>
       </c>
       <c r="P6" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="Q6" t="n">
         <v>1.5</v>
@@ -1246,19 +1246,19 @@
         <v>1.64</v>
       </c>
       <c r="S6" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="T6" t="n">
         <v>2.08</v>
       </c>
       <c r="U6" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="V6" t="n">
         <v>1.06</v>
       </c>
       <c r="W6" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="X6" t="n">
         <v>36</v>
@@ -1300,7 +1300,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AK6" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AL6" t="n">
         <v>1000</v>
@@ -1345,13 +1345,13 @@
         <v>16</v>
       </c>
       <c r="G7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H7" t="n">
         <v>1.17</v>
       </c>
       <c r="I7" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="J7" t="n">
         <v>7.6</v>
@@ -1372,25 +1372,25 @@
         <v>1.15</v>
       </c>
       <c r="P7" t="n">
-        <v>2.92</v>
+        <v>2.98</v>
       </c>
       <c r="Q7" t="n">
         <v>1.43</v>
       </c>
       <c r="R7" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="S7" t="n">
         <v>2.1</v>
       </c>
       <c r="T7" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="U7" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="V7" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="W7" t="n">
         <v>1.04</v>
@@ -1411,16 +1411,16 @@
         <v>970</v>
       </c>
       <c r="AC7" t="n">
-        <v>970</v>
+        <v>24</v>
       </c>
       <c r="AD7" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
         <v>17</v>
       </c>
       <c r="AF7" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AG7" t="n">
         <v>970</v>
@@ -1429,7 +1429,7 @@
         <v>970</v>
       </c>
       <c r="AI7" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ7" t="n">
         <v>1000</v>
@@ -1438,7 +1438,7 @@
         <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AM7" t="n">
         <v>270</v>
@@ -1447,7 +1447,7 @@
         <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="8">
@@ -1477,46 +1477,46 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="H8" t="n">
         <v>3.25</v>
       </c>
       <c r="I8" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="J8" t="n">
         <v>2.76</v>
       </c>
       <c r="K8" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="L8" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="M8" t="n">
         <v>1.17</v>
       </c>
       <c r="N8" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="O8" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="P8" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="R8" t="n">
         <v>1.14</v>
       </c>
       <c r="S8" t="n">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="T8" t="n">
         <v>2.34</v>
@@ -1525,16 +1525,16 @@
         <v>1.66</v>
       </c>
       <c r="V8" t="n">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="W8" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="X8" t="n">
         <v>7</v>
       </c>
       <c r="Y8" t="n">
-        <v>8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z8" t="n">
         <v>24</v>
@@ -1552,13 +1552,13 @@
         <v>18.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
         <v>21</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AH8" t="n">
         <v>34</v>
@@ -1567,22 +1567,22 @@
         <v>120</v>
       </c>
       <c r="AJ8" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AK8" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AL8" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AM8" t="n">
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AO8" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9">
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="G9" t="n">
         <v>1.84</v>
       </c>
       <c r="H9" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="I9" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="J9" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K9" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L9" t="n">
         <v>1.44</v>
@@ -1642,10 +1642,10 @@
         <v>1.49</v>
       </c>
       <c r="P9" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.18</v>
+        <v>2.36</v>
       </c>
       <c r="R9" t="n">
         <v>1.22</v>
@@ -1657,7 +1657,7 @@
         <v>2.22</v>
       </c>
       <c r="U9" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="V9" t="n">
         <v>1.17</v>
@@ -1681,7 +1681,7 @@
         <v>7.6</v>
       </c>
       <c r="AC9" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD9" t="n">
         <v>1000</v>
@@ -1747,25 +1747,25 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="G10" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="H10" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="I10" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="J10" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="K10" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L10" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M10" t="n">
         <v>1.07</v>
@@ -1774,10 +1774,10 @@
         <v>3.65</v>
       </c>
       <c r="O10" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P10" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="Q10" t="n">
         <v>1.96</v>
@@ -1789,25 +1789,25 @@
         <v>3.4</v>
       </c>
       <c r="T10" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="U10" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="V10" t="n">
         <v>1.2</v>
       </c>
       <c r="W10" t="n">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="X10" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="Y10" t="n">
         <v>21</v>
       </c>
       <c r="Z10" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AA10" t="n">
         <v>160</v>
@@ -1816,10 +1816,10 @@
         <v>9.4</v>
       </c>
       <c r="AC10" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>25</v>
+        <v>970</v>
       </c>
       <c r="AE10" t="n">
         <v>1000</v>
@@ -1840,16 +1840,16 @@
         <v>21</v>
       </c>
       <c r="AK10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL10" t="n">
         <v>44</v>
       </c>
       <c r="AM10" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN10" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1900,7 +1900,7 @@
         <v>3.25</v>
       </c>
       <c r="L11" t="n">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="M11" t="n">
         <v>1.13</v>
@@ -2023,7 +2023,7 @@
         <v>2.32</v>
       </c>
       <c r="H12" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I12" t="n">
         <v>3.8</v>
@@ -2047,7 +2047,7 @@
         <v>1.37</v>
       </c>
       <c r="P12" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="Q12" t="n">
         <v>2.1</v>
@@ -2164,7 +2164,7 @@
         <v>4.4</v>
       </c>
       <c r="J13" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K13" t="n">
         <v>3.5</v>
@@ -2197,7 +2197,7 @@
         <v>1.97</v>
       </c>
       <c r="U13" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="V13" t="n">
         <v>1.29</v>
@@ -2308,7 +2308,7 @@
         <v>1.43</v>
       </c>
       <c r="M14" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N14" t="n">
         <v>3.55</v>
@@ -2329,7 +2329,7 @@
         <v>3.7</v>
       </c>
       <c r="T14" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U14" t="n">
         <v>1.9</v>
@@ -2362,7 +2362,7 @@
         <v>24</v>
       </c>
       <c r="AE14" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AF14" t="n">
         <v>9.4</v>
@@ -2380,7 +2380,7 @@
         <v>16</v>
       </c>
       <c r="AK14" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AL14" t="n">
         <v>42</v>
@@ -2422,10 +2422,10 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="G15" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="H15" t="n">
         <v>8.6</v>
@@ -2434,10 +2434,10 @@
         <v>10</v>
       </c>
       <c r="J15" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="K15" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L15" t="n">
         <v>1.43</v>
@@ -2455,28 +2455,28 @@
         <v>1.82</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R15" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S15" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="T15" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="U15" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="V15" t="n">
         <v>1.11</v>
       </c>
       <c r="W15" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="X15" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Y15" t="n">
         <v>970</v>
@@ -2515,7 +2515,7 @@
         <v>13</v>
       </c>
       <c r="AK15" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AL15" t="n">
         <v>50</v>
@@ -2599,7 +2599,7 @@
         <v>4.7</v>
       </c>
       <c r="T16" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="U16" t="n">
         <v>1.58</v>
@@ -2623,7 +2623,7 @@
         <v>590</v>
       </c>
       <c r="AB16" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AC16" t="n">
         <v>12</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-05.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-05.xlsx
@@ -679,7 +679,7 @@
         <v>1.94</v>
       </c>
       <c r="J2" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K2" t="n">
         <v>4.7</v>
@@ -718,7 +718,7 @@
         <v>2.06</v>
       </c>
       <c r="W2" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -814,13 +814,13 @@
         <v>3.3</v>
       </c>
       <c r="J3" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="K3" t="n">
         <v>2.84</v>
       </c>
       <c r="L3" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="M3" t="n">
         <v>1.17</v>
@@ -835,7 +835,7 @@
         <v>1.41</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="R3" t="n">
         <v>1.14</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="G4" t="n">
-        <v>1.79</v>
+        <v>1.9</v>
       </c>
       <c r="H4" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="I4" t="n">
-        <v>6.2</v>
+        <v>5.3</v>
       </c>
       <c r="J4" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K4" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L4" t="n">
         <v>1.33</v>
@@ -967,35 +967,35 @@
         <v>1.29</v>
       </c>
       <c r="P4" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="R4" t="n">
         <v>1.38</v>
       </c>
       <c r="S4" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T4" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="U4" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V4" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="W4" t="n">
-        <v>2.26</v>
+        <v>2.1</v>
       </c>
       <c r="X4" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y4" t="n">
         <v>18.5</v>
       </c>
-      <c r="Y4" t="n">
-        <v>19</v>
-      </c>
       <c r="Z4" t="n">
         <v>1000</v>
       </c>
@@ -1003,13 +1003,13 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
@@ -1021,13 +1021,13 @@
         <v>10.5</v>
       </c>
       <c r="AH4" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>21</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>19</v>
       </c>
       <c r="AK4" t="n">
         <v>19.5</v>
@@ -1039,7 +1039,7 @@
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="G5" t="n">
         <v>1.78</v>
@@ -1081,7 +1081,7 @@
         <v>6</v>
       </c>
       <c r="I5" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="J5" t="n">
         <v>3.6</v>
@@ -1096,7 +1096,7 @@
         <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="O5" t="n">
         <v>1.36</v>
@@ -1108,7 +1108,7 @@
         <v>2.06</v>
       </c>
       <c r="R5" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S5" t="n">
         <v>3.65</v>
@@ -1117,7 +1117,7 @@
         <v>1.96</v>
       </c>
       <c r="U5" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="V5" t="n">
         <v>1.17</v>
@@ -1135,7 +1135,7 @@
         <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AB5" t="n">
         <v>7.8</v>
@@ -1171,7 +1171,7 @@
         <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AN5" t="n">
         <v>1000</v>
@@ -1252,13 +1252,13 @@
         <v>2.08</v>
       </c>
       <c r="U6" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="V6" t="n">
         <v>1.06</v>
       </c>
       <c r="W6" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="X6" t="n">
         <v>36</v>
@@ -1285,7 +1285,7 @@
         <v>300</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AG6" t="n">
         <v>12</v>
@@ -1342,19 +1342,19 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G7" t="n">
         <v>25</v>
       </c>
       <c r="H7" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="I7" t="n">
         <v>1.2</v>
       </c>
       <c r="J7" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="K7" t="n">
         <v>11</v>
@@ -1384,13 +1384,13 @@
         <v>2.1</v>
       </c>
       <c r="T7" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="U7" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="V7" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="W7" t="n">
         <v>1.04</v>
@@ -1402,7 +1402,7 @@
         <v>13</v>
       </c>
       <c r="Z7" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AA7" t="n">
         <v>9.800000000000001</v>
@@ -1417,7 +1417,7 @@
         <v>1000</v>
       </c>
       <c r="AE7" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AF7" t="n">
         <v>230</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="G8" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J8" t="n">
         <v>2.72</v>
       </c>
-      <c r="G8" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="H8" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I8" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2.76</v>
-      </c>
       <c r="K8" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="L8" t="n">
         <v>1.57</v>
@@ -1519,28 +1519,28 @@
         <v>6.8</v>
       </c>
       <c r="T8" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="U8" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="V8" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="W8" t="n">
-        <v>1.51</v>
+        <v>1.46</v>
       </c>
       <c r="X8" t="n">
         <v>7</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="Z8" t="n">
         <v>24</v>
       </c>
       <c r="AA8" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="AB8" t="n">
         <v>7.6</v>
@@ -1567,10 +1567,10 @@
         <v>120</v>
       </c>
       <c r="AJ8" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK8" t="n">
         <v>55</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>50</v>
       </c>
       <c r="AL8" t="n">
         <v>110</v>
@@ -1612,64 +1612,64 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="G9" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="I9" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="J9" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="K9" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="L9" t="n">
         <v>1.44</v>
       </c>
       <c r="M9" t="n">
-        <v>1.09</v>
+        <v>1.12</v>
       </c>
       <c r="N9" t="n">
-        <v>2.82</v>
+        <v>2.72</v>
       </c>
       <c r="O9" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="P9" t="n">
-        <v>1.62</v>
+        <v>1.56</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.36</v>
+        <v>2.48</v>
       </c>
       <c r="R9" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="S9" t="n">
-        <v>4.3</v>
+        <v>5.1</v>
       </c>
       <c r="T9" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="U9" t="n">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="V9" t="n">
         <v>1.17</v>
       </c>
       <c r="W9" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="X9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y9" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Z9" t="n">
         <v>1000</v>
@@ -1681,7 +1681,7 @@
         <v>7.6</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AD9" t="n">
         <v>1000</v>
@@ -1690,7 +1690,7 @@
         <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG9" t="n">
         <v>13</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="G10" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="I10" t="n">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="J10" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K10" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="L10" t="n">
         <v>1.42</v>
@@ -1771,13 +1771,13 @@
         <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="O10" t="n">
         <v>1.31</v>
       </c>
       <c r="P10" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="Q10" t="n">
         <v>1.96</v>
@@ -1789,28 +1789,28 @@
         <v>3.4</v>
       </c>
       <c r="T10" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="U10" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="V10" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="W10" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="X10" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
         <v>21</v>
       </c>
       <c r="Z10" t="n">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="AA10" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AB10" t="n">
         <v>9.4</v>
@@ -1819,7 +1819,7 @@
         <v>9.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>970</v>
+        <v>26</v>
       </c>
       <c r="AE10" t="n">
         <v>1000</v>
@@ -1894,7 +1894,7 @@
         <v>3.7</v>
       </c>
       <c r="J11" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="K11" t="n">
         <v>3.25</v>
@@ -2017,13 +2017,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="G12" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="H12" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I12" t="n">
         <v>3.8</v>
@@ -2032,7 +2032,7 @@
         <v>3.35</v>
       </c>
       <c r="K12" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L12" t="n">
         <v>1.46</v>
@@ -2065,10 +2065,10 @@
         <v>2.1</v>
       </c>
       <c r="V12" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="W12" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="X12" t="n">
         <v>15.5</v>
@@ -2092,7 +2092,7 @@
         <v>16</v>
       </c>
       <c r="AE12" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AF12" t="n">
         <v>15</v>
@@ -2155,7 +2155,7 @@
         <v>2.14</v>
       </c>
       <c r="G13" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H13" t="n">
         <v>3.65</v>
@@ -2203,7 +2203,7 @@
         <v>1.29</v>
       </c>
       <c r="W13" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="X13" t="n">
         <v>12</v>
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="G14" t="n">
         <v>1.7</v>
@@ -2305,40 +2305,40 @@
         <v>4.1</v>
       </c>
       <c r="L14" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M14" t="n">
         <v>1.08</v>
       </c>
       <c r="N14" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="O14" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="P14" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="R14" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="S14" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="T14" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="U14" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="V14" t="n">
         <v>1.17</v>
       </c>
       <c r="W14" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="X14" t="n">
         <v>13.5</v>
@@ -2347,52 +2347,52 @@
         <v>21</v>
       </c>
       <c r="Z14" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AA14" t="n">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="AB14" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AC14" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD14" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AE14" t="n">
         <v>90</v>
       </c>
       <c r="AF14" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG14" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AH14" t="n">
         <v>29</v>
       </c>
       <c r="AI14" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AJ14" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AK14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL14" t="n">
         <v>42</v>
       </c>
       <c r="AM14" t="n">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="AN14" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AO14" t="n">
-        <v>140</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15">
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="G15" t="n">
         <v>1.51</v>
@@ -2434,13 +2434,13 @@
         <v>10</v>
       </c>
       <c r="J15" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K15" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L15" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="M15" t="n">
         <v>1.07</v>
@@ -2452,10 +2452,10 @@
         <v>1.37</v>
       </c>
       <c r="P15" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R15" t="n">
         <v>1.31</v>
@@ -2464,10 +2464,10 @@
         <v>3.8</v>
       </c>
       <c r="T15" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="U15" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="V15" t="n">
         <v>1.11</v>
@@ -2485,13 +2485,13 @@
         <v>100</v>
       </c>
       <c r="AA15" t="n">
-        <v>490</v>
+        <v>470</v>
       </c>
       <c r="AB15" t="n">
         <v>6.8</v>
       </c>
       <c r="AC15" t="n">
-        <v>11</v>
+        <v>970</v>
       </c>
       <c r="AD15" t="n">
         <v>970</v>
@@ -2512,7 +2512,7 @@
         <v>200</v>
       </c>
       <c r="AJ15" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AK15" t="n">
         <v>1000</v>
@@ -2524,10 +2524,10 @@
         <v>280</v>
       </c>
       <c r="AN15" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO15" t="n">
-        <v>410</v>
+        <v>390</v>
       </c>
     </row>
     <row r="16">
@@ -2557,10 +2557,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="G16" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="H16" t="n">
         <v>9.199999999999999</v>
@@ -2608,7 +2608,7 @@
         <v>1.1</v>
       </c>
       <c r="W16" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="X16" t="n">
         <v>12.5</v>
@@ -2620,16 +2620,16 @@
         <v>1000</v>
       </c>
       <c r="AA16" t="n">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="AB16" t="n">
         <v>6</v>
       </c>
       <c r="AC16" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>42</v>
+        <v>970</v>
       </c>
       <c r="AE16" t="n">
         <v>290</v>
@@ -2644,7 +2644,7 @@
         <v>970</v>
       </c>
       <c r="AI16" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="AJ16" t="n">
         <v>14</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-05.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-05.xlsx
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="G2" t="n">
-        <v>5.7</v>
+        <v>5</v>
       </c>
       <c r="H2" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="I2" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="J2" t="n">
         <v>3.6</v>
@@ -694,13 +694,13 @@
         <v>4.1</v>
       </c>
       <c r="O2" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="P2" t="n">
         <v>2.08</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="R2" t="n">
         <v>1.42</v>
@@ -709,34 +709,34 @@
         <v>2.8</v>
       </c>
       <c r="T2" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U2" t="n">
         <v>2.12</v>
       </c>
       <c r="V2" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="W2" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Y2" t="n">
-        <v>11.5</v>
+        <v>16.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC2" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD2" t="n">
         <v>12</v>
@@ -751,7 +751,7 @@
         <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
@@ -772,7 +772,7 @@
         <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>970</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
@@ -820,7 +820,7 @@
         <v>2.84</v>
       </c>
       <c r="L3" t="n">
-        <v>1.61</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
         <v>1.17</v>
@@ -889,7 +889,7 @@
         <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="AJ3" t="n">
         <v>1000</v>
@@ -898,10 +898,10 @@
         <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>110</v>
+        <v>500</v>
       </c>
       <c r="AM3" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="AN3" t="n">
         <v>1000</v>
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="G4" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="H4" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="I4" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="J4" t="n">
         <v>3.65</v>
@@ -967,7 +967,7 @@
         <v>1.29</v>
       </c>
       <c r="P4" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="Q4" t="n">
         <v>1.84</v>
@@ -985,31 +985,31 @@
         <v>2.04</v>
       </c>
       <c r="V4" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="W4" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="X4" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC4" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AD4" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
@@ -1027,19 +1027,19 @@
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK4" t="n">
         <v>19.5</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="G5" t="n">
         <v>1.78</v>
@@ -1081,37 +1081,37 @@
         <v>6</v>
       </c>
       <c r="I5" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="J5" t="n">
         <v>3.6</v>
       </c>
       <c r="K5" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="L5" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="O5" t="n">
         <v>1.36</v>
       </c>
       <c r="P5" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R5" t="n">
         <v>1.31</v>
       </c>
       <c r="S5" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="T5" t="n">
         <v>1.96</v>
@@ -1120,28 +1120,28 @@
         <v>1.86</v>
       </c>
       <c r="V5" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W5" t="n">
         <v>2.28</v>
       </c>
       <c r="X5" t="n">
-        <v>970</v>
+        <v>90</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Z5" t="n">
         <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>190</v>
+        <v>700</v>
       </c>
       <c r="AB5" t="n">
         <v>7.8</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AD5" t="n">
         <v>1000</v>
@@ -1150,16 +1150,16 @@
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AI5" t="n">
-        <v>110</v>
+        <v>700</v>
       </c>
       <c r="AJ5" t="n">
         <v>1000</v>
@@ -1171,10 +1171,10 @@
         <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>160</v>
+        <v>700</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1216,7 +1216,7 @@
         <v>14.5</v>
       </c>
       <c r="I6" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="J6" t="n">
         <v>6.8</v>
@@ -1231,37 +1231,37 @@
         <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="O6" t="n">
         <v>1.16</v>
       </c>
       <c r="P6" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="Q6" t="n">
         <v>1.5</v>
       </c>
       <c r="R6" t="n">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>2.24</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>2.08</v>
       </c>
       <c r="U6" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="V6" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="W6" t="n">
         <v>4.7</v>
       </c>
       <c r="X6" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
         <v>1000</v>
@@ -1276,7 +1276,7 @@
         <v>11</v>
       </c>
       <c r="AC6" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AD6" t="n">
         <v>1000</v>
@@ -1285,7 +1285,7 @@
         <v>300</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AG6" t="n">
         <v>12</v>
@@ -1351,10 +1351,10 @@
         <v>1.16</v>
       </c>
       <c r="I7" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="J7" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="K7" t="n">
         <v>11</v>
@@ -1369,7 +1369,7 @@
         <v>6.6</v>
       </c>
       <c r="O7" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P7" t="n">
         <v>2.98</v>
@@ -1378,19 +1378,19 @@
         <v>1.43</v>
       </c>
       <c r="R7" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="S7" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="T7" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="U7" t="n">
         <v>1.67</v>
       </c>
       <c r="V7" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="W7" t="n">
         <v>1.04</v>
@@ -1399,13 +1399,13 @@
         <v>970</v>
       </c>
       <c r="Y7" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Z7" t="n">
         <v>9.4</v>
       </c>
       <c r="AA7" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AB7" t="n">
         <v>970</v>
@@ -1429,7 +1429,7 @@
         <v>970</v>
       </c>
       <c r="AI7" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="AJ7" t="n">
         <v>1000</v>
@@ -1477,31 +1477,31 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="G8" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H8" t="n">
         <v>3.1</v>
       </c>
       <c r="I8" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J8" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="K8" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="L8" t="n">
-        <v>1.57</v>
+        <v>1.68</v>
       </c>
       <c r="M8" t="n">
         <v>1.17</v>
       </c>
       <c r="N8" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="O8" t="n">
         <v>1.69</v>
@@ -1519,19 +1519,19 @@
         <v>6.8</v>
       </c>
       <c r="T8" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="U8" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="V8" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="W8" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="X8" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="Y8" t="n">
         <v>8.4</v>
@@ -1540,13 +1540,13 @@
         <v>24</v>
       </c>
       <c r="AA8" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>7.6</v>
+        <v>9.4</v>
       </c>
       <c r="AC8" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AD8" t="n">
         <v>18.5</v>
@@ -1561,16 +1561,16 @@
         <v>17.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AI8" t="n">
         <v>120</v>
       </c>
       <c r="AJ8" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
         <v>110</v>
@@ -1612,25 +1612,25 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="G9" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="H9" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="I9" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="J9" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K9" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L9" t="n">
-        <v>1.44</v>
+        <v>1.55</v>
       </c>
       <c r="M9" t="n">
         <v>1.12</v>
@@ -1639,37 +1639,37 @@
         <v>2.72</v>
       </c>
       <c r="O9" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="P9" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="R9" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="S9" t="n">
         <v>5.1</v>
       </c>
       <c r="T9" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="U9" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="V9" t="n">
         <v>1.17</v>
       </c>
       <c r="W9" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="X9" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
         <v>1000</v>
@@ -1684,7 +1684,7 @@
         <v>9.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AE9" t="n">
         <v>1000</v>
@@ -1693,19 +1693,19 @@
         <v>11</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AH9" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AI9" t="n">
         <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AK9" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AL9" t="n">
         <v>1000</v>
@@ -1714,7 +1714,7 @@
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1747,13 +1747,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="G10" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="H10" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="I10" t="n">
         <v>6.4</v>
@@ -1762,58 +1762,58 @@
         <v>3.55</v>
       </c>
       <c r="K10" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L10" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M10" t="n">
         <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="O10" t="n">
         <v>1.31</v>
       </c>
       <c r="P10" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U10" t="n">
         <v>1.92</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="S10" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.98</v>
       </c>
       <c r="V10" t="n">
         <v>1.18</v>
       </c>
       <c r="W10" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="X10" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y10" t="n">
         <v>21</v>
       </c>
       <c r="Z10" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AA10" t="n">
-        <v>150</v>
+        <v>700</v>
       </c>
       <c r="AB10" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC10" t="n">
         <v>9.4</v>
@@ -1825,31 +1825,31 @@
         <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="AG10" t="n">
         <v>10.5</v>
       </c>
       <c r="AH10" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>700</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK10" t="n">
         <v>970</v>
       </c>
-      <c r="AI10" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>21</v>
-      </c>
       <c r="AL10" t="n">
-        <v>44</v>
+        <v>500</v>
       </c>
       <c r="AM10" t="n">
-        <v>130</v>
+        <v>500</v>
       </c>
       <c r="AN10" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1891,7 +1891,7 @@
         <v>3.15</v>
       </c>
       <c r="I11" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J11" t="n">
         <v>2.84</v>
@@ -1900,25 +1900,25 @@
         <v>3.25</v>
       </c>
       <c r="L11" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="M11" t="n">
         <v>1.13</v>
       </c>
       <c r="N11" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="O11" t="n">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
       <c r="P11" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="Q11" t="n">
         <v>2.66</v>
       </c>
       <c r="R11" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="S11" t="n">
         <v>5.5</v>
@@ -1927,10 +1927,10 @@
         <v>2.1</v>
       </c>
       <c r="U11" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="V11" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W11" t="n">
         <v>1.54</v>
@@ -1942,10 +1942,10 @@
         <v>11.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA11" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AB11" t="n">
         <v>9.199999999999999</v>
@@ -1954,7 +1954,7 @@
         <v>8.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AE11" t="n">
         <v>60</v>
@@ -1966,16 +1966,16 @@
         <v>16</v>
       </c>
       <c r="AH11" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI11" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AJ11" t="n">
         <v>55</v>
       </c>
       <c r="AK11" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AL11" t="n">
         <v>75</v>
@@ -1984,10 +1984,10 @@
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AO11" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12">
@@ -2026,13 +2026,13 @@
         <v>3.7</v>
       </c>
       <c r="I12" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J12" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K12" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L12" t="n">
         <v>1.46</v>
@@ -2041,7 +2041,7 @@
         <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O12" t="n">
         <v>1.37</v>
@@ -2056,73 +2056,73 @@
         <v>1.32</v>
       </c>
       <c r="S12" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="T12" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="U12" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V12" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="W12" t="n">
         <v>1.77</v>
       </c>
       <c r="X12" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD12" t="n">
         <v>15.5</v>
       </c>
-      <c r="Y12" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>27</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>16</v>
-      </c>
       <c r="AE12" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AF12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG12" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH12" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AI12" t="n">
         <v>60</v>
       </c>
       <c r="AJ12" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="AK12" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL12" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AM12" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AN12" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13">
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="G13" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="H13" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="I13" t="n">
-        <v>4.4</v>
+        <v>3.95</v>
       </c>
       <c r="J13" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K13" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L13" t="n">
         <v>1.5</v>
@@ -2191,25 +2191,25 @@
         <v>1.22</v>
       </c>
       <c r="S13" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="T13" t="n">
         <v>1.97</v>
       </c>
       <c r="U13" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="V13" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="W13" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="X13" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z13" t="n">
         <v>34</v>
@@ -2221,16 +2221,16 @@
         <v>9.4</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE13" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AF13" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AG13" t="n">
         <v>14</v>
@@ -2239,7 +2239,7 @@
         <v>26</v>
       </c>
       <c r="AI13" t="n">
-        <v>95</v>
+        <v>500</v>
       </c>
       <c r="AJ13" t="n">
         <v>40</v>
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="G14" t="n">
         <v>1.7</v>
@@ -2311,7 +2311,7 @@
         <v>1.08</v>
       </c>
       <c r="N14" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="O14" t="n">
         <v>1.37</v>
@@ -2320,7 +2320,7 @@
         <v>1.84</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R14" t="n">
         <v>1.32</v>
@@ -2332,25 +2332,25 @@
         <v>2.06</v>
       </c>
       <c r="U14" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="V14" t="n">
         <v>1.17</v>
       </c>
       <c r="W14" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="X14" t="n">
         <v>13.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="Z14" t="n">
         <v>50</v>
       </c>
       <c r="AA14" t="n">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="AB14" t="n">
         <v>7.4</v>
@@ -2359,10 +2359,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD14" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE14" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AF14" t="n">
         <v>9.199999999999999</v>
@@ -2371,10 +2371,10 @@
         <v>10</v>
       </c>
       <c r="AH14" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AI14" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AJ14" t="n">
         <v>16.5</v>
@@ -2386,13 +2386,13 @@
         <v>42</v>
       </c>
       <c r="AM14" t="n">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="AN14" t="n">
         <v>12</v>
       </c>
       <c r="AO14" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15">
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="G15" t="n">
         <v>1.51</v>
@@ -2452,16 +2452,16 @@
         <v>1.37</v>
       </c>
       <c r="P15" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="R15" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S15" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="T15" t="n">
         <v>2.28</v>
@@ -2479,13 +2479,13 @@
         <v>1000</v>
       </c>
       <c r="Y15" t="n">
-        <v>970</v>
+        <v>29</v>
       </c>
       <c r="Z15" t="n">
         <v>100</v>
       </c>
       <c r="AA15" t="n">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="AB15" t="n">
         <v>6.8</v>
@@ -2494,7 +2494,7 @@
         <v>970</v>
       </c>
       <c r="AD15" t="n">
-        <v>970</v>
+        <v>42</v>
       </c>
       <c r="AE15" t="n">
         <v>230</v>
@@ -2518,7 +2518,7 @@
         <v>1000</v>
       </c>
       <c r="AL15" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AM15" t="n">
         <v>280</v>
@@ -2527,7 +2527,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AO15" t="n">
-        <v>390</v>
+        <v>400</v>
       </c>
     </row>
     <row r="16">
@@ -2566,7 +2566,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="I16" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="J16" t="n">
         <v>4</v>
@@ -2614,7 +2614,7 @@
         <v>12.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Z16" t="n">
         <v>1000</v>
@@ -2641,7 +2641,7 @@
         <v>11.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>970</v>
+        <v>38</v>
       </c>
       <c r="AI16" t="n">
         <v>260</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-05.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-05.xlsx
@@ -667,79 +667,79 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4.3</v>
+        <v>32</v>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="H2" t="n">
-        <v>1.8</v>
+        <v>1.07</v>
       </c>
       <c r="I2" t="n">
-        <v>1.92</v>
+        <v>1.09</v>
       </c>
       <c r="J2" t="n">
-        <v>3.6</v>
+        <v>14</v>
       </c>
       <c r="K2" t="n">
-        <v>4.7</v>
+        <v>19.5</v>
       </c>
       <c r="L2" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="U2" t="n">
         <v>2.08</v>
       </c>
-      <c r="Q2" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="S2" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.12</v>
-      </c>
       <c r="V2" t="n">
-        <v>2.08</v>
+        <v>10.5</v>
       </c>
       <c r="W2" t="n">
-        <v>1.25</v>
+        <v>1.01</v>
       </c>
       <c r="X2" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>24</v>
+        <v>10.5</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>12</v>
+        <v>990</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
@@ -751,7 +751,7 @@
         <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>40</v>
+        <v>990</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
@@ -772,7 +772,7 @@
         <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -802,94 +802,94 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="G3" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="H3" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I3" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J3" t="n">
-        <v>2.68</v>
+        <v>2.74</v>
       </c>
       <c r="K3" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.71</v>
       </c>
       <c r="M3" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="N3" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="O3" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="P3" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="R3" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="S3" t="n">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="T3" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="U3" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="V3" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="W3" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="X3" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC3" t="n">
-        <v>6.8</v>
+        <v>7.8</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AI3" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
         <v>1000</v>
@@ -898,10 +898,10 @@
         <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="AM3" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
         <v>1000</v>
@@ -937,112 +937,112 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="G4" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="H4" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="I4" t="n">
-        <v>5.7</v>
+        <v>5.2</v>
       </c>
       <c r="J4" t="n">
         <v>3.65</v>
       </c>
       <c r="K4" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="L4" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="O4" t="n">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="P4" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U4" t="n">
         <v>1.98</v>
       </c>
-      <c r="Q4" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="S4" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2.04</v>
-      </c>
       <c r="V4" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="W4" t="n">
         <v>2.14</v>
       </c>
       <c r="X4" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="Y4" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>19.5</v>
       </c>
-      <c r="Z4" t="n">
-        <v>44</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>20</v>
-      </c>
       <c r="AK4" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AL4" t="n">
-        <v>500</v>
+        <v>40</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN4" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5">
@@ -1072,112 +1072,112 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="G5" t="n">
-        <v>1.78</v>
+        <v>1.71</v>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I5" t="n">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="J5" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K5" t="n">
         <v>3.85</v>
       </c>
       <c r="L5" t="n">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="M5" t="n">
         <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O5" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="P5" t="n">
         <v>1.8</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="R5" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="S5" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="T5" t="n">
-        <v>1.96</v>
+        <v>2.06</v>
       </c>
       <c r="U5" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="V5" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="W5" t="n">
-        <v>2.28</v>
+        <v>2.4</v>
       </c>
       <c r="X5" t="n">
-        <v>90</v>
+        <v>12.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>500</v>
+        <v>20</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AA5" t="n">
-        <v>700</v>
+        <v>210</v>
       </c>
       <c r="AB5" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AC5" t="n">
-        <v>13</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AF5" t="n">
-        <v>500</v>
+        <v>9</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AH5" t="n">
-        <v>500</v>
+        <v>28</v>
       </c>
       <c r="AI5" t="n">
-        <v>700</v>
+        <v>120</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AM5" t="n">
         <v>700</v>
       </c>
       <c r="AN5" t="n">
-        <v>50</v>
+        <v>12.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6">
@@ -1210,70 +1210,70 @@
         <v>1.22</v>
       </c>
       <c r="G6" t="n">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="H6" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="I6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J6" t="n">
-        <v>6.8</v>
+        <v>7.8</v>
       </c>
       <c r="K6" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="L6" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="M6" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="O6" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P6" t="n">
-        <v>2.64</v>
+        <v>2.82</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="T6" t="n">
         <v>2.08</v>
       </c>
       <c r="U6" t="n">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="V6" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="W6" t="n">
-        <v>4.7</v>
+        <v>5.3</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="Y6" t="n">
         <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AA6" t="n">
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AC6" t="n">
         <v>17</v>
@@ -1282,34 +1282,34 @@
         <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="AF6" t="n">
         <v>8.4</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AI6" t="n">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="AJ6" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AK6" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AM6" t="n">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1342,91 +1342,91 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="G7" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H7" t="n">
         <v>1.16</v>
       </c>
       <c r="I7" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="J7" t="n">
-        <v>8.6</v>
+        <v>10.5</v>
       </c>
       <c r="K7" t="n">
         <v>11</v>
       </c>
       <c r="L7" t="n">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="M7" t="n">
         <v>1.02</v>
       </c>
       <c r="N7" t="n">
-        <v>6.6</v>
+        <v>7.6</v>
       </c>
       <c r="O7" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="P7" t="n">
-        <v>2.98</v>
+        <v>3.15</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="R7" t="n">
-        <v>1.75</v>
+        <v>1.86</v>
       </c>
       <c r="S7" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="T7" t="n">
-        <v>2.28</v>
+        <v>2.16</v>
       </c>
       <c r="U7" t="n">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="V7" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="W7" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="X7" t="n">
-        <v>970</v>
+        <v>80</v>
       </c>
       <c r="Y7" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="Z7" t="n">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
       <c r="AA7" t="n">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="AB7" t="n">
-        <v>970</v>
+        <v>390</v>
       </c>
       <c r="AC7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AE7" t="n">
-        <v>16.5</v>
+        <v>13</v>
       </c>
       <c r="AF7" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="AG7" t="n">
         <v>970</v>
       </c>
       <c r="AH7" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
         <v>160</v>
@@ -1435,19 +1435,19 @@
         <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>1000</v>
+        <v>410</v>
       </c>
       <c r="AL7" t="n">
-        <v>270</v>
+        <v>210</v>
       </c>
       <c r="AM7" t="n">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="AN7" t="n">
         <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>3.65</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="8">
@@ -1480,109 +1480,109 @@
         <v>2.92</v>
       </c>
       <c r="G8" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="H8" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="I8" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J8" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="K8" t="n">
-        <v>2.86</v>
+        <v>2.8</v>
       </c>
       <c r="L8" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="M8" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="N8" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="O8" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="P8" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="R8" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="S8" t="n">
-        <v>6.8</v>
+        <v>8</v>
       </c>
       <c r="T8" t="n">
-        <v>2.3</v>
+        <v>2.16</v>
       </c>
       <c r="U8" t="n">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="V8" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="W8" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="X8" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>6.8</v>
+        <v>42</v>
       </c>
       <c r="AD8" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AE8" t="n">
         <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AI8" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AK8" t="n">
         <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
@@ -1612,109 +1612,109 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.81</v>
+        <v>1.66</v>
       </c>
       <c r="G9" t="n">
-        <v>1.88</v>
+        <v>1.69</v>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>7.2</v>
       </c>
       <c r="I9" t="n">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="J9" t="n">
-        <v>3.25</v>
+        <v>3.65</v>
       </c>
       <c r="K9" t="n">
-        <v>3.45</v>
+        <v>3.85</v>
       </c>
       <c r="L9" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="M9" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="N9" t="n">
-        <v>2.72</v>
+        <v>2.84</v>
       </c>
       <c r="O9" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="P9" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="R9" t="n">
         <v>1.21</v>
       </c>
       <c r="S9" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="T9" t="n">
-        <v>2.28</v>
+        <v>2.4</v>
       </c>
       <c r="U9" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="V9" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="W9" t="n">
-        <v>2.12</v>
+        <v>2.44</v>
       </c>
       <c r="X9" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="Y9" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="AB9" t="n">
-        <v>7.6</v>
+        <v>5.9</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD9" t="n">
         <v>32</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AF9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG9" t="n">
         <v>11</v>
       </c>
-      <c r="AG9" t="n">
+      <c r="AH9" t="n">
+        <v>55</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>180</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK9" t="n">
         <v>23</v>
       </c>
-      <c r="AH9" t="n">
-        <v>85</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>22</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>75</v>
-      </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="AN9" t="n">
-        <v>21</v>
+        <v>15.5</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1747,112 +1747,112 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="G10" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="H10" t="n">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="I10" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="J10" t="n">
-        <v>3.55</v>
+        <v>3.95</v>
       </c>
       <c r="K10" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="L10" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M10" t="n">
         <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O10" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="P10" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="Q10" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="T10" t="n">
         <v>2</v>
       </c>
-      <c r="R10" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S10" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.9</v>
-      </c>
       <c r="U10" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="V10" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="W10" t="n">
-        <v>2.24</v>
+        <v>2.44</v>
       </c>
       <c r="X10" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="Y10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z10" t="n">
         <v>55</v>
       </c>
       <c r="AA10" t="n">
-        <v>700</v>
+        <v>190</v>
       </c>
       <c r="AB10" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>100</v>
+      </c>
+      <c r="AF10" t="n">
         <v>9.199999999999999</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>22</v>
       </c>
       <c r="AG10" t="n">
         <v>10.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="AI10" t="n">
-        <v>700</v>
+        <v>230</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AK10" t="n">
-        <v>970</v>
+        <v>18.5</v>
       </c>
       <c r="AL10" t="n">
-        <v>500</v>
+        <v>40</v>
       </c>
       <c r="AM10" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="AN10" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11">
@@ -1882,31 +1882,31 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.5</v>
+        <v>2.92</v>
       </c>
       <c r="G11" t="n">
-        <v>2.84</v>
+        <v>3.1</v>
       </c>
       <c r="H11" t="n">
-        <v>3.15</v>
+        <v>2.98</v>
       </c>
       <c r="I11" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="J11" t="n">
         <v>2.84</v>
       </c>
       <c r="K11" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="L11" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="M11" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N11" t="n">
-        <v>2.5</v>
+        <v>2.58</v>
       </c>
       <c r="O11" t="n">
         <v>1.59</v>
@@ -1915,79 +1915,79 @@
         <v>1.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.66</v>
+        <v>2.8</v>
       </c>
       <c r="R11" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="S11" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="T11" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="U11" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="V11" t="n">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="W11" t="n">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="X11" t="n">
-        <v>9.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="Y11" t="n">
-        <v>11.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z11" t="n">
-        <v>26</v>
+        <v>18.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="AB11" t="n">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.4</v>
+        <v>6.8</v>
       </c>
       <c r="AD11" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>190</v>
+      </c>
+      <c r="AF11" t="n">
         <v>18.5</v>
       </c>
-      <c r="AE11" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>19</v>
-      </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AI11" t="n">
         <v>95</v>
       </c>
       <c r="AJ11" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AK11" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AL11" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AM11" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AN11" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AO11" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12">
@@ -2017,112 +2017,112 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="G12" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="H12" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I12" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="J12" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K12" t="n">
         <v>3.4</v>
       </c>
-      <c r="K12" t="n">
-        <v>3.45</v>
-      </c>
       <c r="L12" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="M12" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N12" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="O12" t="n">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="P12" t="n">
-        <v>1.85</v>
+        <v>1.77</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.1</v>
+        <v>2.28</v>
       </c>
       <c r="R12" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="S12" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="T12" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="U12" t="n">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="V12" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="W12" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="X12" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="Y12" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AA12" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AB12" t="n">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD12" t="n">
         <v>15.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AF12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG12" t="n">
         <v>11</v>
       </c>
       <c r="AH12" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AI12" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ12" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AK12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL12" t="n">
         <v>44</v>
       </c>
       <c r="AM12" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="AN12" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AO12" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13">
@@ -2152,112 +2152,112 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="G13" t="n">
-        <v>2.46</v>
+        <v>2.38</v>
       </c>
       <c r="H13" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I13" t="n">
         <v>3.95</v>
       </c>
       <c r="J13" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K13" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="L13" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="M13" t="n">
         <v>1.1</v>
       </c>
       <c r="N13" t="n">
-        <v>2.8</v>
+        <v>2.96</v>
       </c>
       <c r="O13" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="P13" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="R13" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S13" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="T13" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="U13" t="n">
         <v>1.84</v>
       </c>
       <c r="V13" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="W13" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="X13" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>80</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>900</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>500</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG13" t="n">
         <v>12.5</v>
       </c>
-      <c r="Y13" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>14</v>
-      </c>
       <c r="AH13" t="n">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="AI13" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>140</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>160</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN13" t="n">
         <v>500</v>
       </c>
-      <c r="AJ13" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>34</v>
-      </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14">
@@ -2287,112 +2287,112 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.68</v>
+        <v>1.63</v>
       </c>
       <c r="G14" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="H14" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="I14" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="J14" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="K14" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="L14" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="M14" t="n">
         <v>1.08</v>
       </c>
       <c r="N14" t="n">
-        <v>3.45</v>
+        <v>3.9</v>
       </c>
       <c r="O14" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" t="n">
         <v>1.37</v>
       </c>
-      <c r="P14" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.32</v>
-      </c>
       <c r="S14" t="n">
-        <v>3.85</v>
+        <v>3.55</v>
       </c>
       <c r="T14" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="U14" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="V14" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="W14" t="n">
-        <v>2.4</v>
+        <v>2.56</v>
       </c>
       <c r="X14" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="Z14" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AA14" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AB14" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="AC14" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>100</v>
+      </c>
+      <c r="AF14" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="AD14" t="n">
-        <v>25</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>110</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>9.199999999999999</v>
-      </c>
       <c r="AG14" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AH14" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AI14" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AJ14" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AK14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL14" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM14" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AN14" t="n">
-        <v>12</v>
+        <v>9.6</v>
       </c>
       <c r="AO14" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15">
@@ -2422,112 +2422,112 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="G15" t="n">
-        <v>1.51</v>
+        <v>1.44</v>
       </c>
       <c r="H15" t="n">
-        <v>8.6</v>
+        <v>10</v>
       </c>
       <c r="I15" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="J15" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="K15" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="L15" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="M15" t="n">
         <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="O15" t="n">
         <v>1.37</v>
       </c>
       <c r="P15" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="R15" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S15" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="T15" t="n">
-        <v>2.28</v>
+        <v>2.4</v>
       </c>
       <c r="U15" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="V15" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="W15" t="n">
-        <v>2.96</v>
+        <v>3.2</v>
       </c>
       <c r="X15" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Z15" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AA15" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="AB15" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AC15" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="AD15" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AE15" t="n">
         <v>230</v>
       </c>
       <c r="AF15" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AI15" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AK15" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AL15" t="n">
-        <v>60</v>
+        <v>230</v>
       </c>
       <c r="AM15" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AN15" t="n">
-        <v>9.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AO15" t="n">
-        <v>400</v>
+        <v>370</v>
       </c>
     </row>
     <row r="16">
@@ -2560,10 +2560,10 @@
         <v>1.5</v>
       </c>
       <c r="G16" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="H16" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I16" t="n">
         <v>10.5</v>
@@ -2572,16 +2572,16 @@
         <v>4</v>
       </c>
       <c r="K16" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L16" t="n">
-        <v>1.4</v>
+        <v>1.51</v>
       </c>
       <c r="M16" t="n">
         <v>1.1</v>
       </c>
       <c r="N16" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="O16" t="n">
         <v>1.45</v>
@@ -2596,70 +2596,70 @@
         <v>1.23</v>
       </c>
       <c r="S16" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="T16" t="n">
         <v>2.42</v>
       </c>
       <c r="U16" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="V16" t="n">
         <v>1.1</v>
       </c>
       <c r="W16" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="X16" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z16" t="n">
         <v>1000</v>
       </c>
       <c r="AA16" t="n">
-        <v>580</v>
+        <v>520</v>
       </c>
       <c r="AB16" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="AC16" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD16" t="n">
-        <v>970</v>
+        <v>44</v>
       </c>
       <c r="AE16" t="n">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="AF16" t="n">
         <v>7.6</v>
       </c>
       <c r="AG16" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AH16" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AI16" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AJ16" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AK16" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AL16" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AM16" t="n">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="AN16" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AO16" t="n">
         <v>1000</v>
